--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>NO</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>Mg Mg Than</t>
-  </si>
-  <si>
-    <t>Ye'Myat Thwin</t>
   </si>
   <si>
     <t>PYE THAN</t>
@@ -3078,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K25"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -3203,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
@@ -3218,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
@@ -3233,7 +3230,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
@@ -3248,7 +3245,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
@@ -3263,7 +3260,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
@@ -3278,7 +3275,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
@@ -3293,7 +3290,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
@@ -3308,7 +3305,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
@@ -3323,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
@@ -3337,8 +3334,8 @@
       <c r="B16" s="49">
         <v>14</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>42</v>
+      <c r="C16" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
@@ -3352,8 +3349,8 @@
       <c r="B17" s="46">
         <v>15</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>52</v>
+      <c r="C17" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
@@ -3368,7 +3365,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
@@ -3383,7 +3380,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
@@ -3398,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -3408,23 +3405,8 @@
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46">
-        <v>19</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="25" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25">
+    <row r="24" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24">
         <v>96</v>
       </c>
     </row>
@@ -4202,7 +4184,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4319,7 +4301,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4358,7 +4340,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>YE'MYAT THWIN</t>
+  </si>
+  <si>
+    <t>Maung Maung Than</t>
   </si>
   <si>
     <r>
@@ -323,11 +326,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 10.8.2018/Fri;</t>
+      <t xml:space="preserve"> 11.8.2018/Sat;</t>
     </r>
-  </si>
-  <si>
-    <t>Maung Maung Than</t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3078,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
@@ -3350,7 +3350,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -326,7 +326,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 11.8.2018/Sat;</t>
+      <t xml:space="preserve"> 13.8.2018/Mon;</t>
     </r>
   </si>
 </sst>
@@ -3078,7 +3078,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -326,7 +326,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13.8.2018/Mon;</t>
+      <t xml:space="preserve"> 14.8.2018/Tue;</t>
     </r>
   </si>
 </sst>
@@ -3078,7 +3078,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="June-2018" sheetId="1" r:id="rId1"/>
     <sheet name="July-2018" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="August-2018" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>NO</t>
   </si>
@@ -329,6 +330,9 @@
       <t xml:space="preserve"> 14.8.2018/Tue;</t>
     </r>
   </si>
+  <si>
+    <t>August-2018/Salary List</t>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +342,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +584,14 @@
       <b/>
       <u/>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -832,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1049,6 +1061,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,6 +1090,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1383,7 +1404,7 @@
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -1412,27 +1433,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1459,21 +1480,21 @@
       <c r="H2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="12">
         <v>0.1</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="81" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="83"/>
       <c r="P2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2186,11 +2207,923 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="63" customWidth="1"/>
+    <col min="9" max="9" width="3" style="63" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="63" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="63" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="63" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="8" style="63" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="63" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="63" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="63" customWidth="1"/>
+    <col min="20" max="20" width="7" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+    </row>
+    <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="86"/>
+      <c r="N2" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="86"/>
+      <c r="P2" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="65">
+        <v>150000</v>
+      </c>
+      <c r="D3" s="70">
+        <v>30</v>
+      </c>
+      <c r="E3" s="55">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55">
+        <v>15000</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55">
+        <v>10000</v>
+      </c>
+      <c r="Q3" s="55">
+        <v>125000</v>
+      </c>
+      <c r="R3" s="55">
+        <f>C3+F3+G3+J3-K3-O3-P3-Q3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="66"/>
+      <c r="U3" s="67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>2</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="68">
+        <v>400000</v>
+      </c>
+      <c r="D4" s="58">
+        <v>30</v>
+      </c>
+      <c r="E4" s="57">
+        <v>13333</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57">
+        <v>40000</v>
+      </c>
+      <c r="L4" s="57">
+        <v>1</v>
+      </c>
+      <c r="M4" s="57">
+        <v>13333</v>
+      </c>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57">
+        <v>113333</v>
+      </c>
+      <c r="R4" s="55">
+        <f t="shared" ref="R4:R18" si="0">C4+F4+G4+J4-K4-O4-P4-Q4</f>
+        <v>246667</v>
+      </c>
+      <c r="S4" s="69"/>
+      <c r="T4" s="67">
+        <v>100000</v>
+      </c>
+      <c r="U4" s="67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>3</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="68">
+        <v>200000</v>
+      </c>
+      <c r="D5" s="58">
+        <v>30</v>
+      </c>
+      <c r="E5" s="57">
+        <v>6666</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="55">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="S5" s="69"/>
+      <c r="U5" s="67"/>
+    </row>
+    <row r="6" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <v>4</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="68">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="58">
+        <v>30</v>
+      </c>
+      <c r="E6" s="57">
+        <v>3333</v>
+      </c>
+      <c r="F6" s="57">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="57">
+        <v>6666</v>
+      </c>
+      <c r="H6" s="57">
+        <v>832</v>
+      </c>
+      <c r="I6" s="57">
+        <v>2</v>
+      </c>
+      <c r="J6" s="57">
+        <v>1664</v>
+      </c>
+      <c r="K6" s="57">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="55">
+        <f t="shared" si="0"/>
+        <v>108330</v>
+      </c>
+      <c r="S6" s="69"/>
+    </row>
+    <row r="7" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <v>5</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="68">
+        <v>70000</v>
+      </c>
+      <c r="D7" s="58">
+        <v>30</v>
+      </c>
+      <c r="E7" s="57">
+        <v>2333</v>
+      </c>
+      <c r="F7" s="57">
+        <v>7000</v>
+      </c>
+      <c r="G7" s="57">
+        <v>4666</v>
+      </c>
+      <c r="H7" s="57">
+        <v>582</v>
+      </c>
+      <c r="I7" s="57">
+        <v>5</v>
+      </c>
+      <c r="J7" s="57">
+        <v>2910</v>
+      </c>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57">
+        <v>45000</v>
+      </c>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="55">
+        <f t="shared" si="0"/>
+        <v>39576</v>
+      </c>
+      <c r="S7" s="69"/>
+    </row>
+    <row r="8" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <v>6</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="68">
+        <v>90000</v>
+      </c>
+      <c r="D8" s="58">
+        <v>30</v>
+      </c>
+      <c r="E8" s="57">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="57">
+        <v>9000</v>
+      </c>
+      <c r="G8" s="57">
+        <v>6000</v>
+      </c>
+      <c r="H8" s="57">
+        <v>750</v>
+      </c>
+      <c r="I8" s="57">
+        <v>1</v>
+      </c>
+      <c r="J8" s="57">
+        <v>750</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57">
+        <v>2</v>
+      </c>
+      <c r="O8" s="57">
+        <v>6000</v>
+      </c>
+      <c r="P8" s="57">
+        <v>20000</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>40000</v>
+      </c>
+      <c r="R8" s="55">
+        <f t="shared" si="0"/>
+        <v>39750</v>
+      </c>
+      <c r="S8" s="69"/>
+      <c r="T8" s="67">
+        <v>40000</v>
+      </c>
+      <c r="U8" s="67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>7</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="68">
+        <v>80000</v>
+      </c>
+      <c r="D9" s="58">
+        <v>30</v>
+      </c>
+      <c r="E9" s="57">
+        <v>2666</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="55">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="S9" s="69"/>
+    </row>
+    <row r="10" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="68">
+        <v>80000</v>
+      </c>
+      <c r="D10" s="58">
+        <v>30</v>
+      </c>
+      <c r="E10" s="57">
+        <v>2666</v>
+      </c>
+      <c r="F10" s="57">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="57">
+        <v>5332</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="55">
+        <f t="shared" si="0"/>
+        <v>93332</v>
+      </c>
+      <c r="S10" s="69"/>
+    </row>
+    <row r="11" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>9</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="68">
+        <v>500000</v>
+      </c>
+      <c r="D11" s="58">
+        <v>30</v>
+      </c>
+      <c r="E11" s="57">
+        <v>16666</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57">
+        <v>50000</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="55">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="S11" s="69"/>
+    </row>
+    <row r="12" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
+        <v>10</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="68">
+        <v>300000</v>
+      </c>
+      <c r="D12" s="58">
+        <v>30</v>
+      </c>
+      <c r="E12" s="57">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="57">
+        <v>30000</v>
+      </c>
+      <c r="G12" s="57">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57">
+        <v>2</v>
+      </c>
+      <c r="J12" s="57">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="57">
+        <v>30000</v>
+      </c>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="55">
+        <f t="shared" si="0"/>
+        <v>325000</v>
+      </c>
+      <c r="S12" s="69"/>
+    </row>
+    <row r="13" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
+        <v>11</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="68">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="58">
+        <v>30</v>
+      </c>
+      <c r="E13" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57">
+        <v>21000</v>
+      </c>
+      <c r="R13" s="55">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="S13" s="69"/>
+    </row>
+    <row r="14" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="68">
+        <v>30000</v>
+      </c>
+      <c r="D14" s="58">
+        <v>30</v>
+      </c>
+      <c r="E14" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57">
+        <v>250</v>
+      </c>
+      <c r="I14" s="57">
+        <v>2</v>
+      </c>
+      <c r="J14" s="57">
+        <v>500</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57">
+        <v>1</v>
+      </c>
+      <c r="M14" s="57">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="55">
+        <f t="shared" si="0"/>
+        <v>29500</v>
+      </c>
+      <c r="S14" s="69"/>
+    </row>
+    <row r="15" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
+        <v>13</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="68">
+        <v>30000</v>
+      </c>
+      <c r="D15" s="58">
+        <v>30</v>
+      </c>
+      <c r="E15" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57">
+        <v>250</v>
+      </c>
+      <c r="I15" s="57">
+        <v>2</v>
+      </c>
+      <c r="J15" s="57">
+        <v>500</v>
+      </c>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57">
+        <v>1</v>
+      </c>
+      <c r="M15" s="57">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57">
+        <v>1000</v>
+      </c>
+      <c r="R15" s="55">
+        <f t="shared" si="0"/>
+        <v>29500</v>
+      </c>
+      <c r="S15" s="69"/>
+    </row>
+    <row r="16" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="68">
+        <v>30000</v>
+      </c>
+      <c r="D16" s="58">
+        <v>30</v>
+      </c>
+      <c r="E16" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57">
+        <v>4</v>
+      </c>
+      <c r="M16" s="57">
+        <v>4000</v>
+      </c>
+      <c r="N16" s="57">
+        <v>2</v>
+      </c>
+      <c r="O16" s="57">
+        <v>2000</v>
+      </c>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57">
+        <v>4000</v>
+      </c>
+      <c r="R16" s="55">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="S16" s="69"/>
+    </row>
+    <row r="17" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
+        <v>15</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="68">
+        <v>30000</v>
+      </c>
+      <c r="D17" s="58">
+        <v>30</v>
+      </c>
+      <c r="E17" s="57">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57">
+        <v>1</v>
+      </c>
+      <c r="M17" s="57">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="55">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+      <c r="S17" s="69"/>
+    </row>
+    <row r="18" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
+        <v>16</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="68">
+        <v>400000</v>
+      </c>
+      <c r="D18" s="58">
+        <v>30</v>
+      </c>
+      <c r="E18" s="57">
+        <v>13333</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57">
+        <v>266660</v>
+      </c>
+      <c r="R18" s="55">
+        <f t="shared" si="0"/>
+        <v>133340</v>
+      </c>
+      <c r="S18" s="69"/>
+    </row>
+    <row r="19" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="60">
+        <f>SUM(C3:C18)</f>
+        <v>2520000</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52">
+        <f>SUM(K3:K17)</f>
+        <v>165000</v>
+      </c>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52">
+        <f>SUM(R3:R18)</f>
+        <v>1816995</v>
+      </c>
+      <c r="S19" s="69"/>
+    </row>
+    <row r="20" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <v>16</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="68">
+        <v>450000</v>
+      </c>
+      <c r="D20" s="58">
+        <v>30</v>
+      </c>
+      <c r="E20" s="57">
+        <v>15000</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57">
+        <v>6</v>
+      </c>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57">
+        <v>30000</v>
+      </c>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57">
+        <v>95000</v>
+      </c>
+      <c r="S20" s="69"/>
+      <c r="T20" s="67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
+        <v>17</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="68">
+        <v>450000</v>
+      </c>
+      <c r="D21" s="58">
+        <v>30</v>
+      </c>
+      <c r="E21" s="57">
+        <v>15000</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57">
+        <v>4</v>
+      </c>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57">
+        <v>30000</v>
+      </c>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57">
+        <v>105000</v>
+      </c>
+      <c r="S21" s="69"/>
+      <c r="T21" s="67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.34" bottom="0" header="0.3" footer="0.21"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="27" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="63" customWidth="1"/>
@@ -2209,34 +3142,34 @@
     <col min="15" max="15" width="8" style="63" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" style="63" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="25.140625" style="63" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="63" customWidth="1"/>
     <col min="20" max="20" width="7" style="63" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
+      <c r="A1" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
     </row>
     <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
@@ -2260,24 +3193,24 @@
       <c r="G2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="77">
         <v>0.1</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="85"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="74" t="s">
         <v>23</v>
       </c>
@@ -2319,13 +3252,12 @@
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
-      <c r="P3" s="55">
-        <v>10000</v>
-      </c>
-      <c r="Q3" s="55">
-        <v>125000</v>
-      </c>
-      <c r="R3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55">
+        <f>C3+F3+G3+H3+J3-M3-O3-P3-Q3</f>
+        <v>150000</v>
+      </c>
       <c r="S3" s="66"/>
       <c r="U3" s="67" t="s">
         <v>71</v>
@@ -2355,25 +3287,18 @@
       <c r="K4" s="57">
         <v>40000</v>
       </c>
-      <c r="L4" s="57">
-        <v>1</v>
-      </c>
-      <c r="M4" s="57">
-        <v>13333</v>
-      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
-      <c r="Q4" s="57">
-        <v>113333</v>
-      </c>
-      <c r="R4" s="57">
-        <v>246667</v>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="55">
+        <f t="shared" ref="R4:R22" si="0">C4+F4+G4+H4+J4-M4-O4-P4-Q4</f>
+        <v>400000</v>
       </c>
       <c r="S4" s="69"/>
-      <c r="T4" s="67">
-        <v>100000</v>
-      </c>
+      <c r="T4" s="67"/>
       <c r="U4" s="67" t="s">
         <v>69</v>
       </c>
@@ -2408,8 +3333,9 @@
       <c r="O5" s="57"/>
       <c r="P5" s="57"/>
       <c r="Q5" s="57"/>
-      <c r="R5" s="57">
-        <v>180000</v>
+      <c r="R5" s="55">
+        <f t="shared" si="0"/>
+        <v>200000</v>
       </c>
       <c r="S5" s="69"/>
       <c r="U5" s="67"/>
@@ -2430,21 +3356,11 @@
       <c r="E6" s="57">
         <v>3333</v>
       </c>
-      <c r="F6" s="57">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="57">
-        <v>6666</v>
-      </c>
-      <c r="H6" s="57">
-        <v>832</v>
-      </c>
-      <c r="I6" s="57">
-        <v>2</v>
-      </c>
-      <c r="J6" s="57">
-        <v>1664</v>
-      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="57">
         <v>10000</v>
       </c>
@@ -2454,8 +3370,9 @@
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
-      <c r="R6" s="57">
-        <v>108330</v>
+      <c r="R6" s="55">
+        <f t="shared" si="0"/>
+        <v>100000</v>
       </c>
       <c r="S6" s="69"/>
     </row>
@@ -2475,32 +3392,21 @@
       <c r="E7" s="57">
         <v>2333</v>
       </c>
-      <c r="F7" s="57">
-        <v>7000</v>
-      </c>
-      <c r="G7" s="57">
-        <v>4666</v>
-      </c>
-      <c r="H7" s="57">
-        <v>582</v>
-      </c>
-      <c r="I7" s="57">
-        <v>5</v>
-      </c>
-      <c r="J7" s="57">
-        <v>2910</v>
-      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
       <c r="N7" s="57"/>
       <c r="O7" s="57"/>
-      <c r="P7" s="57">
-        <v>45000</v>
-      </c>
+      <c r="P7" s="57"/>
       <c r="Q7" s="57"/>
-      <c r="R7" s="57">
-        <v>39576</v>
+      <c r="R7" s="55">
+        <f t="shared" si="0"/>
+        <v>70000</v>
       </c>
       <c r="S7" s="69"/>
     </row>
@@ -2520,43 +3426,24 @@
       <c r="E8" s="57">
         <v>3000</v>
       </c>
-      <c r="F8" s="57">
-        <v>9000</v>
-      </c>
-      <c r="G8" s="57">
-        <v>6000</v>
-      </c>
-      <c r="H8" s="57">
-        <v>750</v>
-      </c>
-      <c r="I8" s="57">
-        <v>1</v>
-      </c>
-      <c r="J8" s="57">
-        <v>750</v>
-      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
-      <c r="N8" s="57">
-        <v>2</v>
-      </c>
-      <c r="O8" s="57">
-        <v>6000</v>
-      </c>
-      <c r="P8" s="57">
-        <v>20000</v>
-      </c>
-      <c r="Q8" s="57">
-        <v>46000</v>
-      </c>
-      <c r="R8" s="57">
-        <v>39750</v>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="55">
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
       <c r="S8" s="69"/>
-      <c r="T8" s="67">
-        <v>40000</v>
-      </c>
+      <c r="T8" s="67"/>
       <c r="U8" s="67" t="s">
         <v>70</v>
       </c>
@@ -2589,7 +3476,8 @@
       <c r="O9" s="57"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
-      <c r="R9" s="57">
+      <c r="R9" s="55">
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="S9" s="69"/>
@@ -2610,12 +3498,8 @@
       <c r="E10" s="57">
         <v>2666</v>
       </c>
-      <c r="F10" s="57">
-        <v>8000</v>
-      </c>
-      <c r="G10" s="57">
-        <v>5332</v>
-      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
@@ -2626,8 +3510,9 @@
       <c r="O10" s="57"/>
       <c r="P10" s="57"/>
       <c r="Q10" s="57"/>
-      <c r="R10" s="57">
-        <v>93332</v>
+      <c r="R10" s="55">
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
       <c r="S10" s="69"/>
     </row>
@@ -2657,16 +3542,13 @@
       </c>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
-      <c r="N11" s="57">
-        <v>1</v>
-      </c>
-      <c r="O11" s="57">
-        <v>16666</v>
-      </c>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
-      <c r="R11" s="57">
-        <v>450000</v>
+      <c r="R11" s="55">
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
       <c r="S11" s="69"/>
     </row>
@@ -2686,19 +3568,11 @@
       <c r="E12" s="57">
         <v>10000</v>
       </c>
-      <c r="F12" s="57">
-        <v>30000</v>
-      </c>
-      <c r="G12" s="57">
-        <v>20000</v>
-      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="57">
-        <v>2</v>
-      </c>
-      <c r="J12" s="57">
-        <v>5000</v>
-      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
       <c r="K12" s="57">
         <v>30000</v>
       </c>
@@ -2708,8 +3582,9 @@
       <c r="O12" s="57"/>
       <c r="P12" s="57"/>
       <c r="Q12" s="57"/>
-      <c r="R12" s="57">
-        <v>325000</v>
+      <c r="R12" s="55">
+        <f t="shared" si="0"/>
+        <v>300000</v>
       </c>
       <c r="S12" s="69"/>
     </row>
@@ -2741,8 +3616,9 @@
       <c r="O13" s="57"/>
       <c r="P13" s="57"/>
       <c r="Q13" s="57"/>
-      <c r="R13" s="57">
-        <v>9000</v>
+      <c r="R13" s="55">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="S13" s="69"/>
     </row>
@@ -2764,30 +3640,19 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="57">
-        <v>250</v>
-      </c>
-      <c r="I14" s="57">
-        <v>2</v>
-      </c>
-      <c r="J14" s="57">
-        <v>500</v>
-      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="57"/>
-      <c r="L14" s="57">
-        <v>1</v>
-      </c>
-      <c r="M14" s="57">
-        <v>1000</v>
-      </c>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="57"/>
       <c r="O14" s="57"/>
       <c r="P14" s="57"/>
-      <c r="Q14" s="57">
-        <v>1000</v>
-      </c>
-      <c r="R14" s="57">
-        <v>29500</v>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="55">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="S14" s="69"/>
     </row>
@@ -2809,30 +3674,19 @@
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
-      <c r="H15" s="57">
-        <v>250</v>
-      </c>
-      <c r="I15" s="57">
-        <v>2</v>
-      </c>
-      <c r="J15" s="57">
-        <v>500</v>
-      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="57"/>
-      <c r="L15" s="57">
-        <v>1</v>
-      </c>
-      <c r="M15" s="57">
-        <v>1000</v>
-      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
-      <c r="Q15" s="57">
-        <v>1000</v>
-      </c>
-      <c r="R15" s="57">
-        <v>29500</v>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="55">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="S15" s="69"/>
     </row>
@@ -2858,24 +3712,15 @@
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="57">
-        <v>4</v>
-      </c>
-      <c r="M16" s="57">
-        <v>4000</v>
-      </c>
-      <c r="N16" s="57">
-        <v>2</v>
-      </c>
-      <c r="O16" s="57">
-        <v>2000</v>
-      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="57"/>
-      <c r="Q16" s="57">
-        <v>6000</v>
-      </c>
-      <c r="R16" s="57">
-        <v>24000</v>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="55">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="S16" s="69"/>
     </row>
@@ -2884,7 +3729,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C17" s="68">
         <v>30000</v>
@@ -2901,20 +3746,15 @@
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
-      <c r="L17" s="57">
-        <v>1</v>
-      </c>
-      <c r="M17" s="57">
-        <v>1000</v>
-      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="57"/>
       <c r="O17" s="57"/>
       <c r="P17" s="57"/>
-      <c r="Q17" s="57">
-        <v>1000</v>
-      </c>
-      <c r="R17" s="57">
-        <v>29000</v>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="55">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="S17" s="69"/>
     </row>
@@ -2923,16 +3763,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C18" s="68">
-        <v>400000</v>
+        <v>30000</v>
       </c>
       <c r="D18" s="58">
         <v>30</v>
       </c>
       <c r="E18" s="57">
-        <v>13333</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
@@ -2946,87 +3786,79 @@
       <c r="O18" s="57"/>
       <c r="P18" s="57"/>
       <c r="Q18" s="57"/>
-      <c r="R18" s="57">
-        <v>133330</v>
+      <c r="R18" s="55">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="S18" s="69"/>
     </row>
     <row r="19" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="60">
-        <f>SUM(C3:C18)</f>
-        <v>2520000</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52">
-        <f>SUM(K3:K17)</f>
+      <c r="A19" s="56">
+        <v>17</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="68">
+        <v>400000</v>
+      </c>
+      <c r="D19" s="58">
+        <v>30</v>
+      </c>
+      <c r="E19" s="57">
+        <v>13333</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="55">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="S19" s="69"/>
+    </row>
+    <row r="20" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="60">
+        <f>SUM(C3:C19)</f>
+        <v>2550000</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52">
+        <f>SUM(K3:K19)</f>
         <v>165000</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52">
-        <f>SUM(R3:R18)</f>
-        <v>1816985</v>
-      </c>
-      <c r="S19" s="69"/>
-    </row>
-    <row r="20" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
-        <v>16</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="68">
-        <v>450000</v>
-      </c>
-      <c r="D20" s="58">
-        <v>30</v>
-      </c>
-      <c r="E20" s="57">
-        <v>15000</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57">
-        <v>6</v>
-      </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57">
-        <v>30000</v>
-      </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57">
-        <v>95000</v>
-      </c>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="91"/>
       <c r="S20" s="69"/>
-      <c r="T20" s="67" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="21" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="68">
         <v>450000</v>
@@ -3043,376 +3875,72 @@
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
-      <c r="L21" s="57">
-        <v>4</v>
-      </c>
+      <c r="L21" s="57"/>
       <c r="M21" s="57"/>
       <c r="N21" s="57"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="57">
-        <v>30000</v>
-      </c>
+      <c r="P21" s="57"/>
       <c r="Q21" s="57"/>
-      <c r="R21" s="57">
-        <v>105000</v>
+      <c r="R21" s="55">
+        <f t="shared" si="0"/>
+        <v>450000</v>
       </c>
       <c r="S21" s="69"/>
       <c r="T21" s="67" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
+        <v>17</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="68">
+        <v>450000</v>
+      </c>
+      <c r="D22" s="58">
+        <v>30</v>
+      </c>
+      <c r="E22" s="57">
+        <v>15000</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="55">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="S22" s="69"/>
+      <c r="T22" s="67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="90">
+        <f>SUM(C20:C22)</f>
+        <v>3450000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.34" bottom="0" header="0.3" footer="0.21"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-    </row>
-    <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46">
-        <v>1</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49">
-        <v>2</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46">
-        <v>3</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49">
-        <v>4</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46">
-        <v>5</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
-        <v>6</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46">
-        <v>7</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
-        <v>8</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46">
-        <v>9</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
-        <v>10</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46">
-        <v>11</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
-        <v>12</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46">
-        <v>13</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
-        <v>14</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46">
-        <v>15</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49">
-        <v>16</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46">
-        <v>17</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49">
-        <v>18</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="24" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K24">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.33" top="0.28999999999999998" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3423,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,41 +3969,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="87">
+      <c r="A1" s="88">
         <v>43313</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
     </row>
     <row r="2" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -3672,7 +4200,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -4062,7 +4590,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -4106,9 +4634,9 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -4197,7 +4725,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="7"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -4275,7 +4803,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -4384,4 +4912,349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+    </row>
+    <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="49">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="46">
+        <v>3</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49">
+        <v>4</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="46">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="49">
+        <v>6</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="46">
+        <v>7</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+    </row>
+    <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="49">
+        <v>8</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+    </row>
+    <row r="11" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="46">
+        <v>9</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49">
+        <v>10</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="46">
+        <v>11</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49">
+        <v>12</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+    </row>
+    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="46">
+        <v>13</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="49">
+        <v>14</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="46">
+        <v>15</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+    </row>
+    <row r="18" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
+        <v>16</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+    </row>
+    <row r="19" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="46">
+        <v>17</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="49">
+        <v>18</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="24" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="June-2018" sheetId="1" r:id="rId1"/>
@@ -1064,6 +1064,12 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,20 +1088,14 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1433,27 +1433,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1480,21 +1480,21 @@
       <c r="H2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="83"/>
+      <c r="J2" s="85"/>
       <c r="K2" s="12">
         <v>0.1</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="82" t="s">
+      <c r="M2" s="85"/>
+      <c r="N2" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="83"/>
+      <c r="O2" s="85"/>
       <c r="P2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2207,7 +2207,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -2237,27 +2237,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
     </row>
     <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
@@ -2284,21 +2284,21 @@
       <c r="H2" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="77">
         <v>0.1</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="86"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="74" t="s">
         <v>23</v>
       </c>
@@ -3119,8 +3119,8 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3149,27 +3149,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
     </row>
     <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
@@ -3196,21 +3196,21 @@
       <c r="H2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="77">
         <v>0.1</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="85" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="86"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="74" t="s">
         <v>23</v>
       </c>
@@ -3255,8 +3255,8 @@
       <c r="P3" s="55"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55">
-        <f>C3+F3+G3+H3+J3-M3-O3-P3-Q3</f>
-        <v>150000</v>
+        <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
+        <v>135000</v>
       </c>
       <c r="S3" s="66"/>
       <c r="U3" s="67" t="s">
@@ -3294,8 +3294,8 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
       <c r="R4" s="55">
-        <f t="shared" ref="R4:R22" si="0">C4+F4+G4+H4+J4-M4-O4-P4-Q4</f>
-        <v>400000</v>
+        <f t="shared" ref="R4:R19" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
+        <v>360000</v>
       </c>
       <c r="S4" s="69"/>
       <c r="T4" s="67"/>
@@ -3335,7 +3335,7 @@
       <c r="Q5" s="57"/>
       <c r="R5" s="55">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>180000</v>
       </c>
       <c r="S5" s="69"/>
       <c r="U5" s="67"/>
@@ -3372,7 +3372,7 @@
       <c r="Q6" s="57"/>
       <c r="R6" s="55">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="S6" s="69"/>
     </row>
@@ -3548,7 +3548,7 @@
       <c r="Q11" s="57"/>
       <c r="R11" s="55">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="S11" s="69"/>
     </row>
@@ -3584,7 +3584,7 @@
       <c r="Q12" s="57"/>
       <c r="R12" s="55">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>270000</v>
       </c>
       <c r="S12" s="69"/>
     </row>
@@ -3813,7 +3813,9 @@
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="57">
+        <v>40000</v>
+      </c>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
       <c r="N19" s="57"/>
@@ -3822,7 +3824,7 @@
       <c r="Q19" s="57"/>
       <c r="R19" s="55">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>360000</v>
       </c>
       <c r="S19" s="69"/>
     </row>
@@ -3842,7 +3844,7 @@
       <c r="J20" s="52"/>
       <c r="K20" s="52">
         <f>SUM(K3:K19)</f>
-        <v>165000</v>
+        <v>205000</v>
       </c>
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
@@ -3850,7 +3852,7 @@
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
-      <c r="R20" s="91"/>
+      <c r="R20" s="82"/>
       <c r="S20" s="69"/>
     </row>
     <row r="21" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3882,7 +3884,7 @@
       <c r="P21" s="57"/>
       <c r="Q21" s="57"/>
       <c r="R21" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R4:R22" si="1">C21+F21+G21+H21+J21-M21-O21-P21-Q21</f>
         <v>450000</v>
       </c>
       <c r="S21" s="69"/>
@@ -3919,7 +3921,7 @@
       <c r="P22" s="57"/>
       <c r="Q22" s="57"/>
       <c r="R22" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450000</v>
       </c>
       <c r="S22" s="69"/>
@@ -3928,7 +3930,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="90">
+      <c r="C23" s="81">
         <f>SUM(C20:C22)</f>
         <v>3450000</v>
       </c>
@@ -3969,41 +3971,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="88">
+      <c r="A1" s="89">
         <v>43313</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
     </row>
     <row r="2" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4937,17 +4939,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="June-2018" sheetId="1" r:id="rId1"/>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Maung Maung Than</t>
+  </si>
+  <si>
+    <t>August-2018/Salary List</t>
   </si>
   <si>
     <r>
@@ -322,16 +325,13 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="16"/>
+        <sz val="20"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 14.8.2018/Tue;</t>
+      <t xml:space="preserve"> 15.8.2018/Wed;</t>
     </r>
-  </si>
-  <si>
-    <t>August-2018/Salary List</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,14 +518,6 @@
       <b/>
       <u/>
       <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -960,7 +952,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,59 +1004,59 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,13 +1071,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3119,7 +3111,7 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
@@ -3150,7 +3142,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -3884,7 +3876,7 @@
       <c r="P21" s="57"/>
       <c r="Q21" s="57"/>
       <c r="R21" s="55">
-        <f t="shared" ref="R4:R22" si="1">C21+F21+G21+H21+J21-M21-O21-P21-Q21</f>
+        <f t="shared" ref="R21:R22" si="1">C21+F21+G21+H21+J21-M21-O21-P21-Q21</f>
         <v>450000</v>
       </c>
       <c r="S21" s="69"/>
@@ -4920,27 +4912,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
@@ -4951,7 +4943,7 @@
       <c r="I1" s="91"/>
       <c r="J1" s="91"/>
     </row>
-    <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51"/>
       <c r="C2" s="51" t="s">
         <v>26</v>
@@ -4978,7 +4970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -4993,7 +4985,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -5008,7 +5000,7 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5023,7 +5015,7 @@
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>4</v>
       </c>
@@ -5038,7 +5030,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
     </row>
-    <row r="7" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -5053,7 +5045,7 @@
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
     </row>
-    <row r="8" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49">
         <v>6</v>
       </c>
@@ -5068,7 +5060,7 @@
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -5083,7 +5075,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
         <v>8</v>
       </c>
@@ -5098,7 +5090,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -5113,7 +5105,7 @@
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49">
         <v>10</v>
       </c>
@@ -5128,7 +5120,7 @@
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -5143,7 +5135,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49">
         <v>12</v>
       </c>
@@ -5158,7 +5150,7 @@
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
     </row>
-    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -5173,7 +5165,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="49">
         <v>14</v>
       </c>
@@ -5188,7 +5180,7 @@
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46">
         <v>15</v>
       </c>
@@ -5203,7 +5195,7 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="49">
         <v>16</v>
       </c>
@@ -5218,7 +5210,7 @@
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46">
         <v>17</v>
       </c>
@@ -5233,7 +5225,7 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49">
         <v>18</v>
       </c>
@@ -5248,7 +5240,7 @@
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
     </row>
-    <row r="24" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24">
         <v>96</v>
       </c>
@@ -5257,6 +5249,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.38" right="0.25" top="0.45" bottom="0.55000000000000004" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -330,7 +330,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 15.8.2018/Wed;</t>
+      <t xml:space="preserve"> 16.8.2018/Thu;</t>
     </r>
   </si>
 </sst>
@@ -4912,13 +4912,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
   <si>
     <t>NO</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>YE'MYAT THWIN</t>
-  </si>
-  <si>
-    <t>Maung Maung Than</t>
   </si>
   <si>
     <t>August-2018/Salary List</t>
@@ -330,7 +327,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 16.8.2018/Thu;</t>
+      <t xml:space="preserve"> 17.8.2018/Fri;</t>
     </r>
   </si>
 </sst>
@@ -3142,7 +3139,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -4910,16 +4907,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -4927,12 +4923,12 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
@@ -4943,7 +4939,7 @@
       <c r="I1" s="91"/>
       <c r="J1" s="91"/>
     </row>
-    <row r="2" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51"/>
       <c r="C2" s="51" t="s">
         <v>26</v>
@@ -4970,7 +4966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -4985,7 +4981,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -5000,7 +4996,7 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5015,7 +5011,7 @@
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>4</v>
       </c>
@@ -5030,7 +5026,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
     </row>
-    <row r="7" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -5045,7 +5041,7 @@
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
     </row>
-    <row r="8" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49">
         <v>6</v>
       </c>
@@ -5060,7 +5056,7 @@
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -5075,7 +5071,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
         <v>8</v>
       </c>
@@ -5090,7 +5086,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -5105,7 +5101,7 @@
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49">
         <v>10</v>
       </c>
@@ -5120,7 +5116,7 @@
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -5135,7 +5131,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49">
         <v>12</v>
       </c>
@@ -5150,7 +5146,7 @@
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
     </row>
-    <row r="15" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -5165,7 +5161,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="49">
         <v>14</v>
       </c>
@@ -5180,12 +5176,12 @@
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46">
         <v>15</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
@@ -5195,12 +5191,12 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="49">
         <v>16</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
@@ -5210,12 +5206,12 @@
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46">
         <v>17</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
@@ -5225,23 +5221,8 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49">
-        <v>18</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="24" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K24">
+    <row r="23" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23">
         <v>96</v>
       </c>
     </row>
@@ -5249,7 +5230,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <pageMargins left="0.38" right="0.25" top="0.45" bottom="0.55000000000000004" header="0.3" footer="0.3"/>
+  <pageMargins left="0.34" right="0.25" top="0.45" bottom="0.43" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="June-2018" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 17.8.2018/Fri;</t>
+      <t xml:space="preserve"> 18.8.2018/Sat;</t>
     </r>
   </si>
 </sst>
@@ -3942,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
@@ -4909,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -587,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +627,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1086,6 +1092,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3942,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,11 +4280,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -4628,7 +4635,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -4674,7 +4681,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="92"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="June-2018" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>NO</t>
   </si>
@@ -294,14 +294,17 @@
     <t>August-2018/Salary List</t>
   </si>
   <si>
+    <t>Tun Linn</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">                                        </t>
+      <t xml:space="preserve">                                                        </t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="20"/>
+        <sz val="18"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -311,24 +314,27 @@
     <r>
       <rPr>
         <b/>
-        <sz val="20"/>
+        <sz val="18"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                              </t>
+      <t xml:space="preserve">                                                                   </t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="20"/>
+        <sz val="18"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 18.8.2018/Sat;</t>
+      <t>21.8.2018/Tue;</t>
     </r>
+  </si>
+  <si>
+    <t>Aung Thet</t>
   </si>
 </sst>
 </file>
@@ -506,21 +512,6 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
@@ -582,6 +573,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -839,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -955,7 +961,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,23 +1013,23 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,39 +1038,41 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,13 +1082,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,10 +1097,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1429,27 +1436,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1476,21 +1483,21 @@
       <c r="H2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="85"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="12">
         <v>0.1</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="84" t="s">
+      <c r="M2" s="87"/>
+      <c r="N2" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="85"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2233,27 +2240,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
     </row>
     <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
@@ -2280,21 +2287,21 @@
       <c r="H2" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="88"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="77">
         <v>0.1</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="87" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="88"/>
+      <c r="O2" s="90"/>
       <c r="P2" s="74" t="s">
         <v>23</v>
       </c>
@@ -3115,14 +3122,14 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="63" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="63" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="27" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="63" customWidth="1"/>
@@ -3138,34 +3145,34 @@
     <col min="15" max="15" width="8" style="63" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" style="63" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="14" style="63" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="63" customWidth="1"/>
     <col min="20" max="20" width="7" style="63" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
     </row>
     <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
@@ -3192,21 +3199,21 @@
       <c r="H2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="88"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="77">
         <v>0.1</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="87" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="88"/>
+      <c r="O2" s="90"/>
       <c r="P2" s="74" t="s">
         <v>23</v>
       </c>
@@ -3236,7 +3243,9 @@
       <c r="E3" s="55">
         <v>5000</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="55">
+        <v>15000</v>
+      </c>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -3248,11 +3257,15 @@
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="P3" s="55">
+        <v>76000</v>
+      </c>
+      <c r="Q3" s="55">
+        <v>25000</v>
+      </c>
       <c r="R3" s="55">
         <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
-        <v>135000</v>
+        <v>49000</v>
       </c>
       <c r="S3" s="66"/>
       <c r="U3" s="67" t="s">
@@ -3287,11 +3300,15 @@
       <c r="M4" s="57"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="P4" s="57">
+        <v>50000</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>100000</v>
+      </c>
       <c r="R4" s="55">
         <f t="shared" ref="R4:R19" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
-        <v>360000</v>
+        <v>210000</v>
       </c>
       <c r="S4" s="69"/>
       <c r="T4" s="67"/>
@@ -3364,11 +3381,13 @@
       <c r="M6" s="57"/>
       <c r="N6" s="57"/>
       <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
+      <c r="P6" s="57">
+        <v>60000</v>
+      </c>
       <c r="Q6" s="57"/>
       <c r="R6" s="55">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="S6" s="69"/>
     </row>
@@ -3398,11 +3417,13 @@
       <c r="M7" s="57"/>
       <c r="N7" s="57"/>
       <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="57">
+        <v>30000</v>
+      </c>
       <c r="Q7" s="57"/>
       <c r="R7" s="55">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="S7" s="69"/>
     </row>
@@ -3809,9 +3830,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
-      <c r="K19" s="57">
-        <v>40000</v>
-      </c>
+      <c r="K19" s="57"/>
       <c r="L19" s="57"/>
       <c r="M19" s="57"/>
       <c r="N19" s="57"/>
@@ -3820,7 +3839,7 @@
       <c r="Q19" s="57"/>
       <c r="R19" s="55">
         <f t="shared" si="0"/>
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="S19" s="69"/>
     </row>
@@ -3840,7 +3859,7 @@
       <c r="J20" s="52"/>
       <c r="K20" s="52">
         <f>SUM(K3:K19)</f>
-        <v>205000</v>
+        <v>165000</v>
       </c>
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
@@ -3859,14 +3878,12 @@
         <v>42</v>
       </c>
       <c r="C21" s="68">
-        <v>450000</v>
+        <v>150000</v>
       </c>
       <c r="D21" s="58">
         <v>30</v>
       </c>
-      <c r="E21" s="57">
-        <v>15000</v>
-      </c>
+      <c r="E21" s="57"/>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -3877,11 +3894,13 @@
       <c r="M21" s="57"/>
       <c r="N21" s="57"/>
       <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
+      <c r="P21" s="57">
+        <v>40000</v>
+      </c>
       <c r="Q21" s="57"/>
       <c r="R21" s="55">
         <f t="shared" ref="R21:R22" si="1">C21+F21+G21+H21+J21-M21-O21-P21-Q21</f>
-        <v>450000</v>
+        <v>110000</v>
       </c>
       <c r="S21" s="69"/>
       <c r="T21" s="67" t="s">
@@ -3896,14 +3915,12 @@
         <v>41</v>
       </c>
       <c r="C22" s="68">
-        <v>450000</v>
+        <v>150000</v>
       </c>
       <c r="D22" s="58">
         <v>30</v>
       </c>
-      <c r="E22" s="57">
-        <v>15000</v>
-      </c>
+      <c r="E22" s="57"/>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
@@ -3914,11 +3931,13 @@
       <c r="M22" s="57"/>
       <c r="N22" s="57"/>
       <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
+      <c r="P22" s="57">
+        <v>20000</v>
+      </c>
       <c r="Q22" s="57"/>
       <c r="R22" s="55">
         <f t="shared" si="1"/>
-        <v>450000</v>
+        <v>130000</v>
       </c>
       <c r="S22" s="69"/>
       <c r="T22" s="67" t="s">
@@ -3928,7 +3947,7 @@
     <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="81">
         <f>SUM(C20:C22)</f>
-        <v>3450000</v>
+        <v>2850000</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3949,8 +3968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,41 +3986,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="89">
+      <c r="A1" s="91">
         <v>43313</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
     </row>
     <row r="2" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4205,7 +4224,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="84"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -4243,7 +4262,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -4595,7 +4614,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4640,7 +4659,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="44"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4681,7 +4700,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="92"/>
+      <c r="Q17" s="83"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -4769,7 +4788,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="7"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4914,13 +4933,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K23"/>
+  <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
@@ -4933,20 +4952,20 @@
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-    </row>
-    <row r="2" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+    </row>
+    <row r="2" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51"/>
       <c r="C2" s="51" t="s">
         <v>26</v>
@@ -4973,7 +4992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -4988,7 +5007,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -5003,7 +5022,7 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5018,7 +5037,7 @@
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>4</v>
       </c>
@@ -5033,7 +5052,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
     </row>
-    <row r="7" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -5048,7 +5067,7 @@
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
     </row>
-    <row r="8" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49">
         <v>6</v>
       </c>
@@ -5063,7 +5082,7 @@
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -5078,7 +5097,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
         <v>8</v>
       </c>
@@ -5093,7 +5112,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -5108,7 +5127,7 @@
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49">
         <v>10</v>
       </c>
@@ -5123,7 +5142,7 @@
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -5138,7 +5157,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49">
         <v>12</v>
       </c>
@@ -5153,7 +5172,7 @@
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
     </row>
-    <row r="15" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -5168,7 +5187,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="49">
         <v>14</v>
       </c>
@@ -5183,7 +5202,7 @@
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46">
         <v>15</v>
       </c>
@@ -5198,7 +5217,7 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="49">
         <v>16</v>
       </c>
@@ -5213,12 +5232,12 @@
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46">
         <v>17</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
@@ -5228,8 +5247,64 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="23" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23">
+    <row r="20" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="49">
+        <v>18</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="46">
+        <v>19</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49">
+        <v>20</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="46">
+        <v>21</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+    </row>
+    <row r="27" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27">
         <v>96</v>
       </c>
     </row>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
   <si>
     <t>NO</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Tun Linn</t>
+  </si>
+  <si>
+    <t>Aung Thet</t>
   </si>
   <si>
     <r>
@@ -330,11 +333,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>21.8.2018/Tue;</t>
+      <t>22.8.2018/Wed;</t>
     </r>
   </si>
   <si>
-    <t>Aung Thet</t>
+    <t>Zaw Oo</t>
+  </si>
+  <si>
+    <t>Ye'Linn Ko</t>
+  </si>
+  <si>
+    <t>Ye' Myat Thwin</t>
   </si>
 </sst>
 </file>
@@ -4933,15 +4942,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K27"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -4949,12 +4959,12 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="93" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -4965,7 +4975,7 @@
       <c r="I1" s="93"/>
       <c r="J1" s="93"/>
     </row>
-    <row r="2" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="51"/>
       <c r="C2" s="51" t="s">
         <v>26</v>
@@ -4992,7 +5002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="46">
         <v>1</v>
       </c>
@@ -5007,7 +5017,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="49">
         <v>2</v>
       </c>
@@ -5022,7 +5032,7 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46">
         <v>3</v>
       </c>
@@ -5037,7 +5047,7 @@
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>4</v>
       </c>
@@ -5052,7 +5062,7 @@
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
     </row>
-    <row r="7" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="46">
         <v>5</v>
       </c>
@@ -5067,7 +5077,7 @@
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
     </row>
-    <row r="8" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49">
         <v>6</v>
       </c>
@@ -5082,7 +5092,7 @@
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
     </row>
-    <row r="9" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46">
         <v>7</v>
       </c>
@@ -5097,7 +5107,7 @@
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
     </row>
-    <row r="10" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49">
         <v>8</v>
       </c>
@@ -5112,7 +5122,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46">
         <v>9</v>
       </c>
@@ -5127,7 +5137,7 @@
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
     </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49">
         <v>10</v>
       </c>
@@ -5142,7 +5152,7 @@
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
     </row>
-    <row r="13" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46">
         <v>11</v>
       </c>
@@ -5157,7 +5167,7 @@
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49">
         <v>12</v>
       </c>
@@ -5172,7 +5182,7 @@
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
     </row>
-    <row r="15" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46">
         <v>13</v>
       </c>
@@ -5187,7 +5197,7 @@
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
     </row>
-    <row r="16" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="49">
         <v>14</v>
       </c>
@@ -5202,7 +5212,7 @@
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="46">
         <v>15</v>
       </c>
@@ -5217,7 +5227,7 @@
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
-    <row r="18" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="49">
         <v>16</v>
       </c>
@@ -5232,7 +5242,7 @@
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
     </row>
-    <row r="19" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="46">
         <v>17</v>
       </c>
@@ -5247,12 +5257,12 @@
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
-    <row r="20" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49">
         <v>18</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
@@ -5262,11 +5272,13 @@
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
     </row>
-    <row r="21" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="46">
         <v>19</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="47" t="s">
+        <v>81</v>
+      </c>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
@@ -5275,11 +5287,13 @@
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="49">
         <v>20</v>
       </c>
-      <c r="C22" s="47"/>
+      <c r="C22" s="47" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
@@ -5288,12 +5302,12 @@
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
     </row>
-    <row r="23" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46">
         <v>21</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
@@ -5303,8 +5317,23 @@
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
     </row>
-    <row r="27" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K27">
+    <row r="24" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49">
+        <v>22</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+    </row>
+    <row r="28" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28">
         <v>96</v>
       </c>
     </row>
@@ -5312,7 +5341,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <pageMargins left="0.34" right="0.25" top="0.45" bottom="0.43" header="0.3" footer="0.3"/>
+  <pageMargins left="0.21" right="0.25" top="0.26" bottom="0.25" header="0.19" footer="0.17"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>Aung Thet</t>
+  </si>
+  <si>
+    <t>Zaw Oo</t>
+  </si>
+  <si>
+    <t>Ye'Linn Ko</t>
+  </si>
+  <si>
+    <t>Ye' Myat Thwin</t>
   </si>
   <si>
     <r>
@@ -333,17 +342,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>22.8.2018/Wed;</t>
+      <t>23.8.2018/Thu;</t>
     </r>
-  </si>
-  <si>
-    <t>Zaw Oo</t>
-  </si>
-  <si>
-    <t>Ye'Linn Ko</t>
-  </si>
-  <si>
-    <t>Ye' Myat Thwin</t>
   </si>
 </sst>
 </file>
@@ -4945,7 +4945,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4964,7 +4964,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="93" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -5277,7 +5277,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
@@ -5292,7 +5292,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="48"/>
@@ -5307,7 +5307,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -342,7 +342,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>23.8.2018/Thu;</t>
+      <t>24.8.2018/Fri;</t>
     </r>
   </si>
 </sst>
@@ -4945,12 +4945,12 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -4958,8 +4958,8 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>NO</t>
   </si>
@@ -307,6 +307,21 @@
   </si>
   <si>
     <t>Ye' Myat Thwin</t>
+  </si>
+  <si>
+    <t>Bl-100000</t>
+  </si>
+  <si>
+    <t>AUNG THET</t>
+  </si>
+  <si>
+    <t>TUN LINN</t>
+  </si>
+  <si>
+    <t>ZAW OO</t>
+  </si>
+  <si>
+    <t>YE'LINN KO</t>
   </si>
   <si>
     <r>
@@ -342,7 +357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>24.8.2018/Fri;</t>
+      <t>25.8.2018/Sat;</t>
     </r>
   </si>
 </sst>
@@ -602,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +663,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -968,7 +989,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1082,6 +1102,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,6 +1124,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1445,27 +1474,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1492,21 +1521,21 @@
       <c r="H2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="87"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="12">
         <v>0.1</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="86" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="87"/>
+      <c r="O2" s="90"/>
       <c r="P2" s="10" t="s">
         <v>23</v>
       </c>
@@ -2226,889 +2255,889 @@
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="62" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="63" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="63" customWidth="1"/>
-    <col min="9" max="9" width="3" style="63" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="63" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="63" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="8" style="63" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="63" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="63" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="63" customWidth="1"/>
-    <col min="20" max="20" width="7" style="63" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="63"/>
+    <col min="5" max="5" width="8.5703125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="3" style="62" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="62" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="62" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="62" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="62" customWidth="1"/>
+    <col min="15" max="15" width="8" style="62" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="62" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="62" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="62" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="62" customWidth="1"/>
+    <col min="20" max="20" width="7" style="62" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-    </row>
-    <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+    </row>
+    <row r="2" spans="1:21" s="78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="77">
+      <c r="J2" s="93"/>
+      <c r="K2" s="76">
         <v>0.1</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="74" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+    <row r="3" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="64">
         <v>150000</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <v>30</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="54">
         <v>5000</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54">
         <v>15000</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54">
         <v>10000</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="54">
         <v>125000</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="54">
         <f>C3+F3+G3+J3-K3-O3-P3-Q3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="66"/>
-      <c r="U3" s="67" t="s">
+      <c r="S3" s="65"/>
+      <c r="U3" s="66" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+    <row r="4" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="67">
         <v>400000</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="57">
         <v>30</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="56">
         <v>13333</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56">
         <v>40000</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="56">
         <v>1</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="56">
         <v>13333</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57">
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56">
         <v>113333</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="54">
         <f t="shared" ref="R4:R18" si="0">C4+F4+G4+J4-K4-O4-P4-Q4</f>
         <v>246667</v>
       </c>
-      <c r="S4" s="69"/>
-      <c r="T4" s="67">
+      <c r="S4" s="68"/>
+      <c r="T4" s="66">
         <v>100000</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+    <row r="5" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <v>200000</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>30</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="56">
         <v>6666</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56">
         <v>20000</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="55">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="54">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="S5" s="69"/>
-      <c r="U5" s="67"/>
-    </row>
-    <row r="6" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="S5" s="68"/>
+      <c r="U5" s="66"/>
+    </row>
+    <row r="6" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="67">
         <v>100000</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>30</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="56">
         <v>3333</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="56">
         <v>10000</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="56">
         <v>6666</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="56">
         <v>832</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="56">
         <v>2</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="56">
         <v>1664</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <v>10000</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="55">
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="54">
         <f t="shared" si="0"/>
         <v>108330</v>
       </c>
-      <c r="S6" s="69"/>
-    </row>
-    <row r="7" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="S6" s="68"/>
+    </row>
+    <row r="7" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="67">
         <v>70000</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="57">
         <v>30</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <v>2333</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="56">
         <v>7000</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="56">
         <v>4666</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="56">
         <v>582</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="56">
         <v>5</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="56">
         <v>2910</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56">
         <v>45000</v>
       </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="55">
+      <c r="Q7" s="56"/>
+      <c r="R7" s="54">
         <f t="shared" si="0"/>
         <v>39576</v>
       </c>
-      <c r="S7" s="69"/>
-    </row>
-    <row r="8" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="S7" s="68"/>
+    </row>
+    <row r="8" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="67">
         <v>90000</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>30</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <v>3000</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="56">
         <v>9000</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="56">
         <v>6000</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="56">
         <v>750</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="56">
         <v>1</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="56">
         <v>750</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56">
         <v>2</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="56">
         <v>6000</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="56">
         <v>20000</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="56">
         <v>40000</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="54">
         <f t="shared" si="0"/>
         <v>39750</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="67">
+      <c r="S8" s="68"/>
+      <c r="T8" s="66">
         <v>40000</v>
       </c>
-      <c r="U8" s="67" t="s">
+      <c r="U8" s="66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+    <row r="9" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <v>80000</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>30</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <v>2666</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="55">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="54">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="S9" s="69"/>
-    </row>
-    <row r="10" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="S9" s="68"/>
+    </row>
+    <row r="10" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <v>80000</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>30</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <v>2666</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="56">
         <v>8000</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="56">
         <v>5332</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="55">
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="54">
         <f t="shared" si="0"/>
         <v>93332</v>
       </c>
-      <c r="S10" s="69"/>
-    </row>
-    <row r="11" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="S10" s="68"/>
+    </row>
+    <row r="11" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
         <v>9</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="67">
         <v>500000</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <v>30</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <v>16666</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57">
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56">
         <v>50000</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="55">
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="54">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="S11" s="69"/>
-    </row>
-    <row r="12" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="S11" s="68"/>
+    </row>
+    <row r="12" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
         <v>10</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="67">
         <v>300000</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>30</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>10000</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="56">
         <v>30000</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="56">
         <v>20000</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57">
+      <c r="H12" s="56"/>
+      <c r="I12" s="56">
         <v>2</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="56">
         <v>5000</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="56">
         <v>30000</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="55">
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="54">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="S12" s="69"/>
-    </row>
-    <row r="13" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="S12" s="68"/>
+    </row>
+    <row r="13" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>11</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="67">
         <v>30000</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>30</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="56">
         <v>1000</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56">
         <v>21000</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="54">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="S13" s="69"/>
-    </row>
-    <row r="14" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="S13" s="68"/>
+    </row>
+    <row r="14" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
         <v>12</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>30000</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>30</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="56">
         <v>1000</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57">
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56">
         <v>250</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="56">
         <v>2</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="56">
         <v>500</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57">
+      <c r="K14" s="56"/>
+      <c r="L14" s="56">
         <v>1</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="56">
         <v>1000</v>
       </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57">
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56">
         <v>1000</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="54">
         <f t="shared" si="0"/>
         <v>29500</v>
       </c>
-      <c r="S14" s="69"/>
-    </row>
-    <row r="15" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="S14" s="68"/>
+    </row>
+    <row r="15" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
         <v>13</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="67">
         <v>30000</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <v>30</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>1000</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57">
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56">
         <v>250</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="56">
         <v>2</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="56">
         <v>500</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57">
+      <c r="K15" s="56"/>
+      <c r="L15" s="56">
         <v>1</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="56">
         <v>1000</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57">
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56">
         <v>1000</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="54">
         <f t="shared" si="0"/>
         <v>29500</v>
       </c>
-      <c r="S15" s="69"/>
-    </row>
-    <row r="16" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="S15" s="68"/>
+    </row>
+    <row r="16" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
         <v>14</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="67">
         <v>30000</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="57">
         <v>30</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <v>1000</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57">
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56">
         <v>4</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="56">
         <v>4000</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="56">
         <v>2</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="56">
         <v>2000</v>
       </c>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57">
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56">
         <v>4000</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="54">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="S16" s="69"/>
-    </row>
-    <row r="17" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
         <v>15</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="67">
         <v>30000</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="57">
         <v>30</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <v>1000</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57">
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56">
         <v>1</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="56">
         <v>1000</v>
       </c>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57">
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56">
         <v>1000</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="54">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
-      <c r="S17" s="69"/>
-    </row>
-    <row r="18" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
         <v>16</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="67">
         <v>400000</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="57">
         <v>30</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="56">
         <v>13333</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57">
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56">
         <v>266660</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="54">
         <f t="shared" si="0"/>
         <v>133340</v>
       </c>
-      <c r="S18" s="69"/>
-    </row>
-    <row r="19" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="60">
+      <c r="S18" s="68"/>
+    </row>
+    <row r="19" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="59">
         <f>SUM(C3:C18)</f>
         <v>2520000</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52">
+      <c r="D19" s="70"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51">
         <f>SUM(K3:K17)</f>
         <v>165000</v>
       </c>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52">
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51">
         <f>SUM(R3:R18)</f>
         <v>1816995</v>
       </c>
-      <c r="S19" s="69"/>
-    </row>
-    <row r="20" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="S19" s="68"/>
+    </row>
+    <row r="20" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
         <v>16</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="67">
         <v>450000</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="57">
         <v>30</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="56">
         <v>15000</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56">
         <v>6</v>
       </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57">
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56">
         <v>30000</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57">
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56">
         <v>95000</v>
       </c>
-      <c r="S20" s="69"/>
-      <c r="T20" s="67" t="s">
+      <c r="S20" s="68"/>
+      <c r="T20" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+    <row r="21" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
         <v>17</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="67">
         <v>450000</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="57">
         <v>30</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <v>15000</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57">
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56">
         <v>4</v>
       </c>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57">
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56">
         <v>30000</v>
       </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57">
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56">
         <v>105000</v>
       </c>
-      <c r="S21" s="69"/>
-      <c r="T21" s="67" t="s">
+      <c r="S21" s="68"/>
+      <c r="T21" s="66" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3129,838 +3158,986 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="63" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="62" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="63" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="63" customWidth="1"/>
-    <col min="9" max="9" width="3" style="63" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="63" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="8" style="63" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="63" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="63" customWidth="1"/>
-    <col min="18" max="18" width="14" style="63" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="63" customWidth="1"/>
-    <col min="20" max="20" width="7" style="63" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="63"/>
+    <col min="5" max="5" width="8.5703125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="3" style="62" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="62" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="62" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="62" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="62" customWidth="1"/>
+    <col min="15" max="15" width="8" style="62" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="62" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="62" customWidth="1"/>
+    <col min="18" max="18" width="14" style="62" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="62" customWidth="1"/>
+    <col min="20" max="20" width="7" style="62" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-    </row>
-    <row r="2" spans="1:21" s="79" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+    </row>
+    <row r="2" spans="1:22" s="78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="77">
+      <c r="J2" s="93"/>
+      <c r="K2" s="76">
         <v>0.1</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="74" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+    <row r="3" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="64">
         <v>150000</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <v>30</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="54">
         <v>5000</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>15000</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54">
         <v>15000</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55">
-        <v>76000</v>
-      </c>
-      <c r="Q3" s="55">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54">
+        <v>96000</v>
+      </c>
+      <c r="Q3" s="54">
         <v>25000</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="54">
         <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
-        <v>49000</v>
-      </c>
-      <c r="S3" s="66"/>
-      <c r="U3" s="67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+        <v>29000</v>
+      </c>
+      <c r="S3" s="65"/>
+      <c r="U3" s="66"/>
+    </row>
+    <row r="4" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="67">
         <v>400000</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="57">
         <v>30</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="56">
         <v>13333</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56">
         <v>40000</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57">
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56">
         <v>50000</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="Q4" s="56">
         <v>100000</v>
       </c>
-      <c r="R4" s="55">
+      <c r="R4" s="54">
         <f t="shared" ref="R4:R19" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
         <v>210000</v>
       </c>
-      <c r="S4" s="69"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="S4" s="68"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <v>200000</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>30</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="56">
         <v>6666</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56">
         <v>20000</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="55">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="54">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="S5" s="69"/>
-      <c r="U5" s="67"/>
-    </row>
-    <row r="6" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="S5" s="68"/>
+      <c r="U5" s="66"/>
+    </row>
+    <row r="6" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="67">
         <v>100000</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>30</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="56">
         <v>3333</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57">
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56">
         <v>10000</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57">
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56">
         <v>60000</v>
       </c>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="55">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="54">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="S6" s="69"/>
-    </row>
-    <row r="7" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="S6" s="68"/>
+    </row>
+    <row r="7" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>5</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="67">
         <v>70000</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="57">
         <v>30</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <v>2333</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56">
+        <v>5</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56">
         <v>30000</v>
       </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="55">
+      <c r="Q7" s="56"/>
+      <c r="R7" s="54">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="S7" s="69"/>
-    </row>
-    <row r="8" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="S7" s="68"/>
+    </row>
+    <row r="8" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="67">
         <v>90000</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>30</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <v>3000</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="55">
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56">
+        <v>45000</v>
+      </c>
+      <c r="R8" s="54">
         <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67" t="s">
+        <v>45000</v>
+      </c>
+      <c r="S8" s="68"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="V8" s="63">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <v>80000</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>30</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <v>2666</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="55">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="54">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="S9" s="69"/>
-    </row>
-    <row r="10" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="S9" s="68"/>
+    </row>
+    <row r="10" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <v>80000</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>30</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <v>2666</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="55">
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="54">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="S10" s="69"/>
-    </row>
-    <row r="11" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="S10" s="68"/>
+    </row>
+    <row r="11" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
         <v>9</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="67">
         <v>500000</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="57">
         <v>30</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <v>16666</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57">
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56">
         <v>50000</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="55">
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="54">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="S11" s="69"/>
-    </row>
-    <row r="12" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="S11" s="68"/>
+    </row>
+    <row r="12" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
         <v>10</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="67">
         <v>300000</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="57">
         <v>30</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <v>10000</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56">
         <v>30000</v>
       </c>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="55">
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56">
+        <v>2</v>
+      </c>
+      <c r="O12" s="56">
+        <v>20000</v>
+      </c>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="54">
         <f t="shared" si="0"/>
-        <v>270000</v>
-      </c>
-      <c r="S12" s="69"/>
-    </row>
-    <row r="13" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+        <v>250000</v>
+      </c>
+      <c r="S12" s="68"/>
+    </row>
+    <row r="13" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>11</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="67">
         <v>30000</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="57">
         <v>30</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="56">
         <v>1000</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="55">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="54">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="S13" s="69"/>
-    </row>
-    <row r="14" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="S13" s="68"/>
+    </row>
+    <row r="14" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
         <v>12</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>30000</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="57">
         <v>30</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="56">
         <v>1000</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="55">
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56">
+        <v>30000</v>
+      </c>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="68"/>
+    </row>
+    <row r="15" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
+        <v>13</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="67">
+        <v>30000</v>
+      </c>
+      <c r="D15" s="57">
+        <v>30</v>
+      </c>
+      <c r="E15" s="56">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56">
+        <v>30000</v>
+      </c>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="68"/>
+    </row>
+    <row r="16" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55">
+        <v>14</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="67">
+        <v>30000</v>
+      </c>
+      <c r="D16" s="57">
+        <v>30</v>
+      </c>
+      <c r="E16" s="56">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56">
+        <v>2</v>
+      </c>
+      <c r="M16" s="56">
+        <v>2000</v>
+      </c>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="54">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
+        <v>15</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="67">
+        <v>30000</v>
+      </c>
+      <c r="D17" s="57">
+        <v>30</v>
+      </c>
+      <c r="E17" s="56">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="54">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="S14" s="69"/>
-    </row>
-    <row r="15" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
-        <v>13</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="68">
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55">
+        <v>16</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="67">
         <v>30000</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D18" s="57">
         <v>30</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E18" s="56">
         <v>1000</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="55">
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="54">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="S15" s="69"/>
-    </row>
-    <row r="16" spans="1:21" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
-        <v>14</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="68">
-        <v>30000</v>
-      </c>
-      <c r="D16" s="58">
+      <c r="S18" s="68"/>
+    </row>
+    <row r="19" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
+        <v>17</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="67">
+        <v>400000</v>
+      </c>
+      <c r="D19" s="57">
         <v>30</v>
       </c>
-      <c r="E16" s="57">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="55">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="S16" s="69"/>
-    </row>
-    <row r="17" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
-        <v>15</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="68">
-        <v>30000</v>
-      </c>
-      <c r="D17" s="58">
-        <v>30</v>
-      </c>
-      <c r="E17" s="57">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="55">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="S17" s="69"/>
-    </row>
-    <row r="18" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
-        <v>16</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="68">
-        <v>30000</v>
-      </c>
-      <c r="D18" s="58">
-        <v>30</v>
-      </c>
-      <c r="E18" s="57">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="55">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="S18" s="69"/>
-    </row>
-    <row r="19" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
-        <v>17</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="68">
-        <v>400000</v>
-      </c>
-      <c r="D19" s="58">
-        <v>30</v>
-      </c>
-      <c r="E19" s="57">
+      <c r="E19" s="56">
         <v>13333</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="55">
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="54">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="S19" s="69"/>
-    </row>
-    <row r="20" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="60">
+      <c r="S19" s="68"/>
+    </row>
+    <row r="20" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
+        <v>18</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="68"/>
+    </row>
+    <row r="21" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
+        <v>19</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="68"/>
+    </row>
+    <row r="22" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55">
+        <v>20</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="67">
+        <v>30000</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="68"/>
+    </row>
+    <row r="23" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
+        <v>21</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="67">
+        <v>30000</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="68"/>
+    </row>
+    <row r="24" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55">
+        <v>22</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="67">
+        <v>100000</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="68"/>
+    </row>
+    <row r="25" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="59">
         <f>SUM(C3:C19)</f>
         <v>2550000</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52">
+      <c r="D25" s="70"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51">
         <f>SUM(K3:K19)</f>
         <v>165000</v>
       </c>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="69"/>
-    </row>
-    <row r="21" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
-        <v>16</v>
-      </c>
-      <c r="B21" s="61" t="s">
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="68"/>
+    </row>
+    <row r="26" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55">
+        <v>23</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C26" s="67">
         <v>150000</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D26" s="57">
         <v>30</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57">
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56">
         <v>40000</v>
       </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="55">
-        <f t="shared" ref="R21:R22" si="1">C21+F21+G21+H21+J21-M21-O21-P21-Q21</f>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="54">
+        <f t="shared" ref="R26:R27" si="1">C26+F26+G26+H26+J26-M26-O26-P26-Q26</f>
         <v>110000</v>
       </c>
-      <c r="S21" s="69"/>
-      <c r="T21" s="67" t="s">
+      <c r="S26" s="68"/>
+      <c r="T26" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
-        <v>17</v>
-      </c>
-      <c r="B22" s="61" t="s">
+    <row r="27" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <v>24</v>
+      </c>
+      <c r="B27" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C27" s="67">
         <v>150000</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D27" s="57">
         <v>30</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57">
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56">
         <v>20000</v>
       </c>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="55">
+      <c r="Q27" s="56"/>
+      <c r="R27" s="54">
         <f t="shared" si="1"/>
         <v>130000</v>
       </c>
-      <c r="S22" s="69"/>
-      <c r="T22" s="67" t="s">
+      <c r="S27" s="68"/>
+      <c r="T27" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="81">
-        <f>SUM(C20:C22)</f>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="80">
+        <f>SUM(C25:C27)</f>
         <v>2850000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:S1"/>
@@ -3975,63 +4152,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="4" width="4.28515625" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
     <col min="6" max="10" width="4" customWidth="1"/>
-    <col min="11" max="12" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
     <col min="13" max="15" width="4" customWidth="1"/>
     <col min="16" max="16" width="4.140625" customWidth="1"/>
     <col min="17" max="33" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="91">
+    <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="95">
         <v>43313</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-    </row>
-    <row r="2" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+    </row>
+    <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="42" t="s">
         <v>1</v>
@@ -4130,7 +4308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4169,7 +4347,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -4208,7 +4386,7 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4233,7 +4411,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="84"/>
+      <c r="U5" s="83"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -4247,7 +4425,7 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -4286,7 +4464,7 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4325,7 +4503,7 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -4345,26 +4523,26 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-    </row>
-    <row r="9" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+    </row>
+    <row r="9" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4403,7 +4581,7 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -4442,7 +4620,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -4481,7 +4659,7 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -4520,7 +4698,7 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4559,7 +4737,7 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -4586,8 +4764,8 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -4598,7 +4776,7 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -4643,7 +4821,7 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -4668,12 +4846,12 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="83"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="Z16" s="7"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -4688,7 +4866,7 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4709,7 +4887,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="83"/>
+      <c r="Q17" s="82"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -4733,7 +4911,7 @@
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -4772,7 +4950,7 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
     </row>
-    <row r="19" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4811,7 +4989,7 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -4850,7 +5028,7 @@
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -4874,7 +5052,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="T21" s="7"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -4889,11 +5067,11 @@
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C22" s="2"/>
@@ -4911,15 +5089,15 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="7"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -4928,8 +5106,161 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F25" s="43"/>
+    <row r="23" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="86">
+        <v>21</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+    </row>
+    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="86">
+        <v>22</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="84"/>
+    </row>
+    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="86">
+        <v>23</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
+    </row>
+    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
+        <v>24</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="84"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4945,7 +5276,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4963,374 +5294,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="B1" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49">
+      <c r="B4" s="48">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49">
+      <c r="B6" s="48">
         <v>4</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>6</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>7</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49">
+      <c r="B10" s="48">
         <v>8</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>9</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49">
+      <c r="B12" s="48">
         <v>10</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>11</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <v>12</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>13</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49">
+      <c r="B16" s="48">
         <v>14</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>15</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <v>16</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>17</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>18</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46">
+      <c r="B21" s="45">
         <v>19</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <v>20</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>21</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49">
+      <c r="B24" s="48">
         <v>22</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="28" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K28">

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>NO</t>
   </si>
@@ -346,7 +346,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                                   </t>
+      <t xml:space="preserve">                                                                 </t>
     </r>
     <r>
       <rPr>
@@ -357,7 +357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>25.8.2018/Sat;</t>
+      <t>27.8.2018/Mon;</t>
     </r>
   </si>
 </sst>
@@ -2248,7 +2248,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -3160,8 +3160,8 @@
   </sheetPr>
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3456,12 +3456,12 @@
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
       <c r="P7" s="56">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="Q7" s="56"/>
       <c r="R7" s="54">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="S7" s="68"/>
     </row>
@@ -3530,7 +3530,9 @@
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="L9" s="56">
+        <v>3</v>
+      </c>
       <c r="M9" s="56"/>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -3927,9 +3929,7 @@
       <c r="A21" s="55">
         <v>19</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>82</v>
-      </c>
+      <c r="B21" s="46"/>
       <c r="C21" s="67"/>
       <c r="D21" s="57"/>
       <c r="E21" s="56"/>
@@ -3956,7 +3956,7 @@
         <v>81</v>
       </c>
       <c r="C22" s="67">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="56"/>
@@ -4010,7 +4010,7 @@
         <v>79</v>
       </c>
       <c r="C24" s="67">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="56"/>
@@ -4154,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -5276,7 +5276,7 @@
   <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>NO</t>
   </si>
@@ -324,6 +324,15 @@
     <t>YE'LINN KO</t>
   </si>
   <si>
+    <t>Ye'Myat Thwin</t>
+  </si>
+  <si>
+    <t>Thaw Zin Aung</t>
+  </si>
+  <si>
+    <t>Thae'Oo Mg</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">                                                        </t>
     </r>
@@ -331,7 +340,7 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="18"/>
+        <sz val="16"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -341,7 +350,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="16"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -352,12 +361,12 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="18"/>
+        <sz val="16"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>27.8.2018/Mon;</t>
+      <t>30.8.2018/Thu;</t>
     </r>
   </si>
 </sst>
@@ -603,7 +612,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,7 +620,7 @@
     <font>
       <b/>
       <u/>
-      <sz val="18"/>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -875,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1134,6 +1143,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1445,7 +1460,7 @@
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -2248,7 +2263,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -3158,10 +3173,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3177,9 +3194,9 @@
     <col min="9" max="9" width="3" style="62" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="62" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="62" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="62" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="62" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="62" customWidth="1"/>
+    <col min="12" max="12" width="4" style="62" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="62" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="62" customWidth="1"/>
     <col min="15" max="15" width="8" style="62" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" style="62" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="62" customWidth="1"/>
@@ -3189,7 +3206,7 @@
     <col min="21" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="94" t="s">
         <v>77</v>
       </c>
@@ -3296,14 +3313,14 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54">
-        <v>96000</v>
+        <v>99000</v>
       </c>
       <c r="Q3" s="54">
         <v>25000</v>
       </c>
       <c r="R3" s="54">
         <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="S3" s="65"/>
       <c r="U3" s="66"/>
@@ -3324,7 +3341,9 @@
       <c r="E4" s="56">
         <v>13333</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56">
+        <v>40000</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
@@ -3343,8 +3362,8 @@
         <v>100000</v>
       </c>
       <c r="R4" s="54">
-        <f t="shared" ref="R4:R19" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
-        <v>210000</v>
+        <f t="shared" ref="R4:R23" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
+        <v>250000</v>
       </c>
       <c r="S4" s="68"/>
       <c r="T4" s="66"/>
@@ -3366,7 +3385,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="56">
-        <v>6666</v>
+        <v>6667</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -3481,7 +3500,9 @@
       <c r="E8" s="56">
         <v>3000</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="56">
+        <v>9000</v>
+      </c>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -3489,15 +3510,19 @@
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
       <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
+      <c r="N8" s="56">
+        <v>1</v>
+      </c>
+      <c r="O8" s="56">
+        <v>3000</v>
+      </c>
       <c r="P8" s="56"/>
       <c r="Q8" s="56">
         <v>45000</v>
       </c>
       <c r="R8" s="54">
         <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>51000</v>
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="66"/>
@@ -3531,16 +3556,18 @@
       <c r="J9" s="56"/>
       <c r="K9" s="56"/>
       <c r="L9" s="56">
-        <v>3</v>
-      </c>
-      <c r="M9" s="56"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="56">
+        <v>5332</v>
+      </c>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
       <c r="P9" s="56"/>
       <c r="Q9" s="56"/>
       <c r="R9" s="54">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>74668</v>
       </c>
       <c r="S9" s="68"/>
     </row>
@@ -3560,7 +3587,9 @@
       <c r="E10" s="56">
         <v>2666</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="56">
+        <v>8000</v>
+      </c>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -3568,13 +3597,17 @@
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
       <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
+      <c r="N10" s="56">
+        <v>2</v>
+      </c>
+      <c r="O10" s="56">
+        <v>5332</v>
+      </c>
       <c r="P10" s="56"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="54">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>82668</v>
       </c>
       <c r="S10" s="68"/>
     </row>
@@ -3604,13 +3637,17 @@
       </c>
       <c r="L11" s="56"/>
       <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
+      <c r="N11" s="56">
+        <v>1</v>
+      </c>
+      <c r="O11" s="56">
+        <v>16666</v>
+      </c>
       <c r="P11" s="56"/>
       <c r="Q11" s="56"/>
       <c r="R11" s="54">
         <f t="shared" si="0"/>
-        <v>450000</v>
+        <v>433334</v>
       </c>
       <c r="S11" s="68"/>
     </row>
@@ -3630,7 +3667,9 @@
       <c r="E12" s="56">
         <v>10000</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="56">
+        <v>30000</v>
+      </c>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -3650,7 +3689,7 @@
       <c r="Q12" s="56"/>
       <c r="R12" s="54">
         <f t="shared" si="0"/>
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="S12" s="68"/>
     </row>
@@ -3820,15 +3859,19 @@
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="L17" s="56">
+        <v>1</v>
+      </c>
+      <c r="M17" s="56">
+        <v>1000</v>
+      </c>
       <c r="N17" s="56"/>
       <c r="O17" s="56"/>
       <c r="P17" s="56"/>
       <c r="Q17" s="56"/>
       <c r="R17" s="54">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="S17" s="68"/>
     </row>
@@ -3854,15 +3897,19 @@
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
+      <c r="L18" s="56">
+        <v>1</v>
+      </c>
+      <c r="M18" s="56">
+        <v>1000</v>
+      </c>
       <c r="N18" s="56"/>
       <c r="O18" s="56"/>
       <c r="P18" s="56"/>
       <c r="Q18" s="56"/>
       <c r="R18" s="54">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="S18" s="68"/>
     </row>
@@ -3888,15 +3935,19 @@
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
+      <c r="L19" s="56">
+        <v>17</v>
+      </c>
+      <c r="M19" s="56">
+        <v>226661</v>
+      </c>
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56"/>
       <c r="Q19" s="56"/>
       <c r="R19" s="54">
         <f t="shared" si="0"/>
-        <v>400000</v>
+        <v>173339</v>
       </c>
       <c r="S19" s="68"/>
     </row>
@@ -3907,45 +3958,75 @@
       <c r="B20" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="56"/>
+      <c r="C20" s="67">
+        <v>400000</v>
+      </c>
+      <c r="D20" s="57">
+        <v>30</v>
+      </c>
+      <c r="E20" s="56">
+        <v>13333</v>
+      </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
+      <c r="L20" s="56">
+        <v>20</v>
+      </c>
+      <c r="M20" s="56">
+        <v>266660</v>
+      </c>
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
       <c r="P20" s="56"/>
       <c r="Q20" s="56"/>
-      <c r="R20" s="54"/>
+      <c r="R20" s="54">
+        <f t="shared" si="0"/>
+        <v>133340</v>
+      </c>
       <c r="S20" s="68"/>
     </row>
     <row r="21" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="56"/>
+      <c r="B21" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="67">
+        <v>150000</v>
+      </c>
+      <c r="D21" s="57">
+        <v>30</v>
+      </c>
+      <c r="E21" s="56">
+        <v>5000</v>
+      </c>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="K21" s="56">
+        <v>15000</v>
+      </c>
       <c r="L21" s="56"/>
       <c r="M21" s="56"/>
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="54"/>
+      <c r="P21" s="56">
+        <v>20000</v>
+      </c>
+      <c r="Q21" s="56">
+        <v>15000</v>
+      </c>
+      <c r="R21" s="54">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
       <c r="S21" s="68"/>
     </row>
     <row r="22" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3958,117 +4039,152 @@
       <c r="C22" s="67">
         <v>100000</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="56"/>
+      <c r="D22" s="57">
+        <v>30</v>
+      </c>
+      <c r="E22" s="56">
+        <v>3333</v>
+      </c>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="L22" s="56">
+        <v>18</v>
+      </c>
+      <c r="M22" s="56">
+        <v>59994</v>
+      </c>
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
       <c r="P22" s="56"/>
       <c r="Q22" s="56"/>
-      <c r="R22" s="54"/>
+      <c r="R22" s="54">
+        <f t="shared" si="0"/>
+        <v>40006</v>
+      </c>
       <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="67">
         <v>30000</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="56"/>
+      <c r="D23" s="57">
+        <v>30</v>
+      </c>
+      <c r="E23" s="56">
+        <v>1000</v>
+      </c>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
+      <c r="L23" s="56">
+        <v>18</v>
+      </c>
+      <c r="M23" s="56">
+        <v>18000</v>
+      </c>
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
       <c r="P23" s="56"/>
       <c r="Q23" s="56"/>
-      <c r="R23" s="54"/>
+      <c r="R23" s="54">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
       <c r="S23" s="68"/>
     </row>
     <row r="24" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55">
-        <v>22</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="67">
-        <v>30000</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="68"/>
-    </row>
-    <row r="25" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="59">
+      <c r="A24" s="58"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="59">
         <f>SUM(C3:C19)</f>
         <v>2550000</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51">
+      <c r="D24" s="70"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51">
         <f>SUM(K3:K19)</f>
         <v>165000</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="81"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="81">
+        <f>SUM(R3:R23)</f>
+        <v>1982355</v>
+      </c>
+      <c r="S24" s="68"/>
+    </row>
+    <row r="25" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55">
+        <v>23</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="67">
+        <v>150000</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56">
+        <v>7</v>
+      </c>
+      <c r="M25" s="56">
+        <v>35000</v>
+      </c>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56">
+        <v>50000</v>
+      </c>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="54">
+        <f t="shared" ref="R25:R26" si="1">C25+F25+G25+H25+J25-M25-O25-P25-Q25</f>
+        <v>65000</v>
+      </c>
       <c r="S25" s="68"/>
+      <c r="T25" s="66" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="67">
         <v>150000</v>
       </c>
-      <c r="D26" s="57">
-        <v>30</v>
-      </c>
+      <c r="D26" s="57"/>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
@@ -4076,16 +4192,20 @@
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
+      <c r="L26" s="56">
+        <v>4</v>
+      </c>
+      <c r="M26" s="56">
+        <v>20000</v>
+      </c>
       <c r="N26" s="56"/>
       <c r="O26" s="56"/>
       <c r="P26" s="56">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q26" s="56"/>
       <c r="R26" s="54">
-        <f t="shared" ref="R26:R27" si="1">C26+F26+G26+H26+J26-M26-O26-P26-Q26</f>
+        <f t="shared" si="1"/>
         <v>110000</v>
       </c>
       <c r="S26" s="68"/>
@@ -4093,51 +4213,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
-        <v>24</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="67">
-        <v>150000</v>
-      </c>
-      <c r="D27" s="57">
-        <v>30</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56">
-        <v>20000</v>
-      </c>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="54">
-        <f t="shared" si="1"/>
-        <v>130000</v>
-      </c>
-      <c r="S27" s="68"/>
-      <c r="T27" s="66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="80">
-        <f>SUM(C25:C27)</f>
+    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="80">
+        <f>SUM(C24:C26)</f>
         <v>2850000</v>
       </c>
     </row>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:S1"/>
@@ -4154,7 +4237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -5273,40 +5356,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K28"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-    </row>
-    <row r="2" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+    </row>
+    <row r="2" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50"/>
       <c r="C2" s="50" t="s">
         <v>26</v>
@@ -5333,27 +5416,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45">
+    <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="97">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+    </row>
+    <row r="4" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="45">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-    </row>
-    <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48">
-        <v>2</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -5363,12 +5446,12 @@
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45">
+    <row r="5" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48">
         <v>3</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -5378,12 +5461,12 @@
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48">
+    <row r="6" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="45">
         <v>4</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -5393,12 +5476,12 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45">
+    <row r="7" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48">
         <v>5</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -5408,12 +5491,12 @@
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48">
+    <row r="8" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45">
         <v>6</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -5423,12 +5506,12 @@
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45">
+    <row r="9" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48">
         <v>7</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -5438,12 +5521,12 @@
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
     </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="48">
+    <row r="10" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45">
         <v>8</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5453,12 +5536,12 @@
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45">
+    <row r="11" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48">
         <v>9</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -5468,12 +5551,12 @@
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48">
+    <row r="12" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45">
         <v>10</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -5483,12 +5566,12 @@
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45">
+    <row r="13" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48">
         <v>11</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -5498,12 +5581,12 @@
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48">
+    <row r="14" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="45">
         <v>12</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -5513,12 +5596,12 @@
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
     </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45">
+    <row r="15" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48">
         <v>13</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
@@ -5528,12 +5611,12 @@
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
     </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48">
+    <row r="16" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="45">
         <v>14</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>52</v>
+      <c r="C16" s="46" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -5543,12 +5626,12 @@
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="45">
+    <row r="17" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48">
         <v>15</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>60</v>
+      <c r="C17" s="49" t="s">
+        <v>52</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
@@ -5558,12 +5641,12 @@
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48">
+    <row r="18" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="45">
         <v>16</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
@@ -5573,12 +5656,12 @@
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45">
+    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48">
         <v>17</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
@@ -5588,12 +5671,12 @@
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
     </row>
-    <row r="20" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="48">
+    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45">
         <v>18</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
@@ -5603,12 +5686,12 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
     </row>
-    <row r="21" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45">
+    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="48">
         <v>19</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
@@ -5618,8 +5701,8 @@
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
     </row>
-    <row r="22" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48">
+    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="45">
         <v>20</v>
       </c>
       <c r="C22" s="46" t="s">
@@ -5633,8 +5716,8 @@
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45">
+    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48">
         <v>21</v>
       </c>
       <c r="C23" s="46" t="s">
@@ -5648,8 +5731,8 @@
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
     </row>
-    <row r="24" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48">
+    <row r="24" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="45">
         <v>22</v>
       </c>
       <c r="C24" s="46" t="s">
@@ -5663,8 +5746,51 @@
       <c r="I24" s="47"/>
       <c r="J24" s="47"/>
     </row>
-    <row r="28" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28">
+    <row r="25" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="48">
+        <v>23</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="45">
+        <v>24</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="48">
+        <v>25</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="31" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31">
         <v>96</v>
       </c>
     </row>
@@ -5672,7 +5798,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <pageMargins left="0.21" right="0.25" top="0.26" bottom="0.25" header="0.19" footer="0.17"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t>NO</t>
   </si>
@@ -125,19 +125,10 @@
     <t>Thet Naing Oo</t>
   </si>
   <si>
-    <t xml:space="preserve">Win Zaw </t>
-  </si>
-  <si>
     <t>Myo Zaw</t>
   </si>
   <si>
     <t>Nyein Chan Aung</t>
-  </si>
-  <si>
-    <t>Hla Tun</t>
-  </si>
-  <si>
-    <t>Khaymar</t>
   </si>
   <si>
     <t>Htet Wai Yan</t>
@@ -330,7 +321,19 @@
     <t>Thaw Zin Aung</t>
   </si>
   <si>
-    <t>Thae'Oo Mg</t>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Thae'Wai Oo</t>
+  </si>
+  <si>
+    <t>MeaL-24*1150-27600</t>
+  </si>
+  <si>
+    <t>Myo Thiha</t>
   </si>
   <si>
     <r>
@@ -340,7 +343,7 @@
       <rPr>
         <b/>
         <u/>
-        <sz val="16"/>
+        <sz val="18"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -350,23 +353,23 @@
     <r>
       <rPr>
         <b/>
-        <sz val="16"/>
+        <sz val="18"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                                 </t>
+      <t xml:space="preserve">                                                                                 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="16"/>
+        <sz val="18"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>30.8.2018/Thu;</t>
+      <t>5.9.2018/Wed;</t>
     </r>
   </si>
 </sst>
@@ -378,7 +381,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,7 +615,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -620,7 +623,30 @@
     <font>
       <b/>
       <u/>
-      <sz val="16"/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -884,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1117,6 +1143,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,12 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,27 +1525,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
+      <c r="A1" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1534,23 +1570,23 @@
         <v>24</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="90"/>
+      <c r="I2" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="96"/>
       <c r="K2" s="12">
         <v>0.1</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="90"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="96"/>
       <c r="P2" s="10" t="s">
         <v>23</v>
       </c>
@@ -1569,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="38">
         <v>150000</v>
@@ -1607,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="40">
         <v>400000</v>
@@ -1651,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="40">
         <v>200000</v>
@@ -1693,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="40">
         <v>100000</v>
@@ -2058,7 +2094,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="40">
         <v>30000</v>
@@ -2210,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="24">
         <v>390000</v>
@@ -2263,8 +2299,8 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2293,27 +2329,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
     </row>
     <row r="2" spans="1:21" s="78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
@@ -2338,23 +2374,23 @@
         <v>24</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="93"/>
+        <v>53</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="99"/>
       <c r="K2" s="76">
         <v>0.1</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="93"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="99"/>
       <c r="P2" s="73" t="s">
         <v>23</v>
       </c>
@@ -2373,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="64">
         <v>150000</v>
@@ -2408,7 +2444,7 @@
       </c>
       <c r="S3" s="65"/>
       <c r="U3" s="66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="67">
         <v>400000</v>
@@ -2456,7 +2492,7 @@
         <v>100000</v>
       </c>
       <c r="U4" s="66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2593,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="67">
         <v>90000</v>
@@ -2643,7 +2679,7 @@
         <v>40000</v>
       </c>
       <c r="U8" s="66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="67">
         <v>80000</v>
@@ -2685,7 +2721,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67">
         <v>80000</v>
@@ -2723,7 +2759,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="67">
         <v>500000</v>
@@ -2759,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="67">
         <v>300000</v>
@@ -2803,7 +2839,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="67">
         <v>30000</v>
@@ -2839,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="67">
         <v>30000</v>
@@ -2885,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="67">
         <v>30000</v>
@@ -2931,7 +2967,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="67">
         <v>30000</v>
@@ -2975,7 +3011,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="67">
         <v>30000</v>
@@ -3015,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="67">
         <v>400000</v>
@@ -3081,7 +3117,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="67">
         <v>450000</v>
@@ -3121,7 +3157,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="67">
         <v>450000</v>
@@ -3173,12 +3209,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3190,7 +3226,7 @@
     <col min="5" max="5" width="8.5703125" style="62" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="62" customWidth="1"/>
     <col min="9" max="9" width="3" style="62" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="62" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="62" customWidth="1"/>
@@ -3201,33 +3237,33 @@
     <col min="16" max="16" width="8.85546875" style="62" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="62" customWidth="1"/>
     <col min="18" max="18" width="14" style="62" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="62" customWidth="1"/>
-    <col min="20" max="20" width="7" style="62" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="62" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="62" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
+      <c r="A1" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
     </row>
     <row r="2" spans="1:22" s="78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
@@ -3252,23 +3288,23 @@
         <v>24</v>
       </c>
       <c r="H2" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="93"/>
+        <v>53</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="99"/>
       <c r="K2" s="76">
         <v>0.1</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="93"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="99"/>
       <c r="P2" s="73" t="s">
         <v>23</v>
       </c>
@@ -3287,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="64">
         <v>150000</v>
@@ -3313,14 +3349,14 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54">
-        <v>99000</v>
+        <v>119000</v>
       </c>
       <c r="Q3" s="54">
         <v>25000</v>
       </c>
       <c r="R3" s="54">
         <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
-        <v>26000</v>
+        <v>6000</v>
       </c>
       <c r="S3" s="65"/>
       <c r="U3" s="66"/>
@@ -3330,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="67">
         <v>400000</v>
@@ -3362,13 +3398,13 @@
         <v>100000</v>
       </c>
       <c r="R4" s="54">
-        <f t="shared" ref="R4:R23" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
+        <f t="shared" ref="R4:R24" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
         <v>250000</v>
       </c>
       <c r="S4" s="68"/>
       <c r="T4" s="66"/>
       <c r="U4" s="66" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3464,9 +3500,15 @@
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="56">
+        <v>582</v>
+      </c>
+      <c r="I7" s="56">
+        <v>4</v>
+      </c>
+      <c r="J7" s="56">
+        <v>2328</v>
+      </c>
       <c r="K7" s="56"/>
       <c r="L7" s="56">
         <v>5</v>
@@ -3480,7 +3522,7 @@
       <c r="Q7" s="56"/>
       <c r="R7" s="54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="S7" s="68"/>
     </row>
@@ -3489,7 +3531,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="67">
         <v>90000</v>
@@ -3504,9 +3546,15 @@
         <v>9000</v>
       </c>
       <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="56">
+        <v>750</v>
+      </c>
+      <c r="I8" s="56">
+        <v>3</v>
+      </c>
+      <c r="J8" s="56">
+        <v>2250</v>
+      </c>
       <c r="K8" s="56"/>
       <c r="L8" s="56"/>
       <c r="M8" s="56"/>
@@ -3522,12 +3570,12 @@
       </c>
       <c r="R8" s="54">
         <f t="shared" si="0"/>
-        <v>51000</v>
+        <v>53250</v>
       </c>
       <c r="S8" s="68"/>
       <c r="T8" s="66"/>
       <c r="U8" s="66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V8" s="63">
         <v>65000</v>
@@ -3538,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="67">
         <v>80000</v>
@@ -3559,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="56">
-        <v>5332</v>
+        <v>2666</v>
       </c>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
@@ -3567,7 +3615,7 @@
       <c r="Q9" s="56"/>
       <c r="R9" s="54">
         <f t="shared" si="0"/>
-        <v>74668</v>
+        <v>77334</v>
       </c>
       <c r="S9" s="68"/>
     </row>
@@ -3576,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="67">
         <v>80000</v>
@@ -3616,7 +3664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="67">
         <v>500000</v>
@@ -3656,7 +3704,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="67">
         <v>300000</v>
@@ -3671,9 +3719,15 @@
         <v>30000</v>
       </c>
       <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="H12" s="56">
+        <v>2500</v>
+      </c>
+      <c r="I12" s="56">
+        <v>2</v>
+      </c>
+      <c r="J12" s="56">
+        <v>5000</v>
+      </c>
       <c r="K12" s="56">
         <v>30000</v>
       </c>
@@ -3689,7 +3743,7 @@
       <c r="Q12" s="56"/>
       <c r="R12" s="54">
         <f t="shared" si="0"/>
-        <v>280000</v>
+        <v>285000</v>
       </c>
       <c r="S12" s="68"/>
     </row>
@@ -3698,7 +3752,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="67">
         <v>30000</v>
@@ -3711,19 +3765,29 @@
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="H13" s="56">
+        <v>125</v>
+      </c>
+      <c r="I13" s="56">
+        <v>3</v>
+      </c>
+      <c r="J13" s="56">
+        <v>375</v>
+      </c>
       <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="L13" s="56">
+        <v>1</v>
+      </c>
+      <c r="M13" s="56">
+        <v>1000</v>
+      </c>
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
       <c r="P13" s="56"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="54">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>29375</v>
       </c>
       <c r="S13" s="68"/>
     </row>
@@ -3732,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="67">
         <v>30000</v>
@@ -3768,7 +3832,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="67">
         <v>30000</v>
@@ -3804,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="67">
         <v>30000</v>
@@ -3822,10 +3886,10 @@
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
       <c r="L16" s="56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M16" s="56">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
@@ -3833,7 +3897,7 @@
       <c r="Q16" s="56"/>
       <c r="R16" s="54">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="S16" s="68"/>
     </row>
@@ -3842,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="67">
         <v>30000</v>
@@ -3880,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="67">
         <v>30000</v>
@@ -3917,55 +3981,66 @@
       <c r="A19" s="55">
         <v>17</v>
       </c>
-      <c r="B19" s="60" t="s">
-        <v>73</v>
+      <c r="B19" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="C19" s="67">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="D19" s="57">
         <v>30</v>
       </c>
       <c r="E19" s="56">
-        <v>13333</v>
+        <v>5000</v>
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
+      <c r="H19" s="56">
+        <v>625</v>
+      </c>
+      <c r="I19" s="56">
+        <v>9</v>
+      </c>
+      <c r="J19" s="56">
+        <v>5625</v>
+      </c>
       <c r="K19" s="56"/>
       <c r="L19" s="56">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M19" s="56">
-        <v>226661</v>
+        <v>30000</v>
       </c>
       <c r="N19" s="56"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
+      <c r="Q19" s="56">
+        <v>45000</v>
+      </c>
       <c r="R19" s="54">
         <f t="shared" si="0"/>
-        <v>173339</v>
+        <v>80625</v>
       </c>
       <c r="S19" s="68"/>
+      <c r="T19" s="93" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="67">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="D20" s="57">
         <v>30</v>
       </c>
       <c r="E20" s="56">
-        <v>13333</v>
+        <v>3333</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
@@ -3974,10 +4049,10 @@
       <c r="J20" s="56"/>
       <c r="K20" s="56"/>
       <c r="L20" s="56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M20" s="56">
-        <v>266660</v>
+        <v>59994</v>
       </c>
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
@@ -3985,7 +4060,7 @@
       <c r="Q20" s="56"/>
       <c r="R20" s="54">
         <f t="shared" si="0"/>
-        <v>133340</v>
+        <v>40006</v>
       </c>
       <c r="S20" s="68"/>
     </row>
@@ -3994,38 +4069,36 @@
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C21" s="67">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="D21" s="57">
         <v>30</v>
       </c>
       <c r="E21" s="56">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
-      <c r="K21" s="56">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56">
+        <v>18</v>
+      </c>
+      <c r="M21" s="56">
+        <v>18000</v>
+      </c>
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
-      <c r="P21" s="56">
-        <v>20000</v>
-      </c>
-      <c r="Q21" s="56">
-        <v>15000</v>
-      </c>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
       <c r="R21" s="54">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="S21" s="68"/>
     </row>
@@ -4034,16 +4107,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C22" s="67">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="D22" s="57">
         <v>30</v>
       </c>
       <c r="E22" s="56">
-        <v>3333</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
@@ -4052,10 +4125,10 @@
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
       <c r="L22" s="56">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M22" s="56">
-        <v>59994</v>
+        <v>26000</v>
       </c>
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
@@ -4063,16 +4136,16 @@
       <c r="Q22" s="56"/>
       <c r="R22" s="54">
         <f t="shared" si="0"/>
-        <v>40006</v>
+        <v>4000</v>
       </c>
       <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C23" s="67">
         <v>30000</v>
@@ -4090,10 +4163,10 @@
       <c r="J23" s="56"/>
       <c r="K23" s="56"/>
       <c r="L23" s="56">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M23" s="56">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
@@ -4101,85 +4174,78 @@
       <c r="Q23" s="56"/>
       <c r="R23" s="54">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="S23" s="68"/>
     </row>
     <row r="24" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="59">
-        <f>SUM(C3:C19)</f>
-        <v>2550000</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51">
-        <f>SUM(K3:K19)</f>
+      <c r="A24" s="55">
+        <v>22</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="67">
+        <v>180000</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56">
+        <v>180000</v>
+      </c>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="68"/>
+    </row>
+    <row r="25" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="59">
+        <f>SUM(C3:C18)</f>
+        <v>2150000</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51">
+        <f>SUM(K3:K18)</f>
         <v>165000</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="81">
-        <f>SUM(R3:R23)</f>
-        <v>1982355</v>
-      </c>
-      <c r="S24" s="68"/>
-    </row>
-    <row r="25" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55">
-        <v>23</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="67">
-        <v>150000</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56">
-        <v>7</v>
-      </c>
-      <c r="M25" s="56">
-        <v>35000</v>
-      </c>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56">
-        <v>50000</v>
-      </c>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="54">
-        <f t="shared" ref="R25:R26" si="1">C25+F25+G25+H25+J25-M25-O25-P25-Q25</f>
-        <v>65000</v>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="81">
+        <f>SUM(R3:R24)</f>
+        <v>1651920</v>
       </c>
       <c r="S25" s="68"/>
-      <c r="T25" s="66" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="26" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="67">
         <v>150000</v>
@@ -4193,34 +4259,151 @@
       <c r="J26" s="56"/>
       <c r="K26" s="56"/>
       <c r="L26" s="56">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M26" s="56">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="N26" s="56"/>
       <c r="O26" s="56"/>
       <c r="P26" s="56">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="Q26" s="56"/>
       <c r="R26" s="54">
+        <f t="shared" ref="R26:R27" si="1">C26+F26+G26+H26+J26-M26-O26-P26-Q26</f>
+        <v>55000</v>
+      </c>
+      <c r="S26" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <v>24</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="67">
+        <v>150000</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56">
+        <v>4</v>
+      </c>
+      <c r="M27" s="56">
+        <v>20000</v>
+      </c>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56">
+        <v>20000</v>
+      </c>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="54">
         <f t="shared" si="1"/>
         <v>110000</v>
       </c>
-      <c r="S26" s="68"/>
-      <c r="T26" s="66" t="s">
+      <c r="S27" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="80">
-        <f>SUM(C24:C26)</f>
-        <v>2850000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="80">
+        <f>SUM(C25:C27)</f>
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="67">
+        <v>400000</v>
+      </c>
+      <c r="D29" s="57">
+        <v>30</v>
+      </c>
+      <c r="E29" s="56">
+        <v>13333</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56">
+        <v>17</v>
+      </c>
+      <c r="M29" s="56">
+        <v>226661</v>
+      </c>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56">
+        <f t="shared" ref="R29:R30" si="2">C29+F29+G29+J29-K29-M29-O29-P29-Q29</f>
+        <v>173339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="67">
+        <v>400000</v>
+      </c>
+      <c r="D30" s="57">
+        <v>30</v>
+      </c>
+      <c r="E30" s="56">
+        <v>13333</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56">
+        <v>20</v>
+      </c>
+      <c r="M30" s="56">
+        <v>266660</v>
+      </c>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="54">
+        <f t="shared" si="2"/>
+        <v>133340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="92">
+        <f>SUM(R29:R30)</f>
+        <v>306679</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:S1"/>
@@ -4237,7 +4420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -4256,41 +4439,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="95">
+      <c r="A1" s="101">
         <v>43313</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4474,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4513,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4864,7 +5047,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4954,7 +5137,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4999,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5038,7 +5221,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5077,7 +5260,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -5116,7 +5299,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5155,7 +5338,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5194,7 +5377,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="84"/>
       <c r="D23" s="84"/>
@@ -5233,7 +5416,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" s="84"/>
       <c r="D24" s="84"/>
@@ -5272,7 +5455,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="84"/>
       <c r="D25" s="84"/>
@@ -5311,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
@@ -5356,15 +5539,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -5373,23 +5556,23 @@
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-    </row>
-    <row r="2" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+    </row>
+    <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50"/>
       <c r="C2" s="50" t="s">
         <v>26</v>
@@ -5407,7 +5590,7 @@
         <v>28</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I2" s="50" t="s">
         <v>30</v>
@@ -5416,22 +5599,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="97">
+    <row r="3" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48">
         <v>1</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-    </row>
-    <row r="4" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="45">
         <v>2</v>
       </c>
@@ -5446,7 +5629,7 @@
       <c r="I4" s="47"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="48">
         <v>3</v>
       </c>
@@ -5461,7 +5644,7 @@
       <c r="I5" s="47"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45">
         <v>4</v>
       </c>
@@ -5476,7 +5659,7 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48">
         <v>5</v>
       </c>
@@ -5491,12 +5674,12 @@
       <c r="I7" s="47"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45">
         <v>6</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -5506,12 +5689,12 @@
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48">
         <v>7</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -5521,12 +5704,12 @@
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
     </row>
-    <row r="10" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45">
         <v>8</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5536,12 +5719,12 @@
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
     </row>
-    <row r="11" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48">
         <v>9</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -5551,12 +5734,12 @@
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
     </row>
-    <row r="12" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45">
         <v>10</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -5566,12 +5749,12 @@
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48">
         <v>11</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>39</v>
+      <c r="C13" s="49" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -5581,12 +5764,12 @@
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="45">
         <v>12</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -5596,12 +5779,12 @@
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
     </row>
-    <row r="15" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48">
         <v>13</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
@@ -5611,12 +5794,12 @@
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
     </row>
-    <row r="16" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="45">
         <v>14</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -5626,12 +5809,12 @@
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="48">
         <v>15</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>52</v>
+      <c r="C17" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
@@ -5641,12 +5824,12 @@
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
     </row>
-    <row r="18" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="45">
         <v>16</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="47"/>
@@ -5656,12 +5839,12 @@
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="48">
         <v>17</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
@@ -5671,12 +5854,12 @@
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
     </row>
-    <row r="20" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="45">
         <v>18</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
@@ -5686,12 +5869,12 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
     </row>
-    <row r="21" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48">
         <v>19</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
@@ -5701,96 +5884,8 @@
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
     </row>
-    <row r="22" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45">
-        <v>20</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="48">
-        <v>21</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-    </row>
-    <row r="24" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="45">
-        <v>22</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-    </row>
-    <row r="25" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="48">
-        <v>23</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-    </row>
-    <row r="26" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="45">
-        <v>24</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="48">
-        <v>25</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="31" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K31">
+    <row r="24" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24">
         <v>96</v>
       </c>
     </row>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="June-2018" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t>August-2018/Salary List</t>
   </si>
   <si>
-    <t>Tun Linn</t>
-  </si>
-  <si>
     <t>Aung Thet</t>
   </si>
   <si>
@@ -337,13 +334,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                                                        </t>
+      <t xml:space="preserve">                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="18"/>
+        <sz val="20"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -353,24 +360,47 @@
     <r>
       <rPr>
         <b/>
-        <sz val="18"/>
+        <sz val="20"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                                                 </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                        </t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="18"/>
+        <sz val="16"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5.9.2018/Wed;</t>
+      <t>6.9.2018/Thu;</t>
     </r>
+  </si>
+  <si>
+    <t>Cherry Soe</t>
   </si>
 </sst>
 </file>
@@ -381,7 +411,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,21 +645,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -651,8 +666,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,12 +718,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -692,18 +731,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -926,7 +953,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,41 +1054,41 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,7 +1097,7 @@
     <xf numFmtId="164" fontId="19" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,7 +1107,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,13 +1116,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,28 +1161,23 @@
     <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,9 +1207,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1502,783 +1524,783 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="27" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="4" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="3" style="27" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="27" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="27" customWidth="1"/>
-    <col min="17" max="18" width="10.28515625" style="27" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="3" style="26" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="4" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="3" style="26" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="26" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="26" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="26" customWidth="1"/>
+    <col min="17" max="18" width="10.28515625" style="26" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="26" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-    </row>
-    <row r="2" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+    </row>
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="12">
+      <c r="J2" s="90"/>
+      <c r="K2" s="11">
         <v>0.1</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="95" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>150000</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>30</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>5000</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>15000</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38">
         <v>15000</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39">
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38">
         <v>150000</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="U3" s="17"/>
-    </row>
-    <row r="4" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="S3" s="15"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>400000</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="40">
         <v>30</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="40">
         <v>13333</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40">
         <v>40000</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41">
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40">
         <v>1</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="40">
         <v>13333</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="40">
         <v>120000</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="40">
         <v>133333</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="40">
         <v>226667</v>
       </c>
-      <c r="S4" s="22"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="S4" s="21"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>200000</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="40">
         <v>30</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>6666</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40">
         <v>20000</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41">
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40">
         <v>1</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="40">
         <v>6666</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40">
         <v>26666</v>
       </c>
-      <c r="R5" s="41">
+      <c r="R5" s="40">
         <v>173334</v>
       </c>
-      <c r="S5" s="22"/>
-      <c r="U5" s="17"/>
-    </row>
-    <row r="6" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="S5" s="21"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>100000</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <v>30</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <v>3333</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40">
         <v>832</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <v>5</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="40">
         <v>4160</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="40">
         <v>10000</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41">
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40">
         <v>1</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="40">
         <v>3333</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40">
         <v>13333</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="40">
         <v>90827</v>
       </c>
-      <c r="S6" s="22"/>
-    </row>
-    <row r="7" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>70000</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>30</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="40">
         <v>2333</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40">
         <v>582</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <v>4</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="40">
         <v>2328</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40">
         <v>4</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="40">
         <v>18664</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40">
         <v>50000</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="40">
         <v>68664</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="40">
         <v>3664</v>
       </c>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>90000</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="40">
         <v>30</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>3000</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>9000</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40">
         <v>750</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>7</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>5250</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41">
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40">
         <v>104250</v>
       </c>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>80000</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>30</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>2666</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41">
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40">
         <v>2</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="40">
         <v>10664</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41">
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40">
         <v>20000</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="40">
         <v>30664</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="40">
         <v>49336</v>
       </c>
-      <c r="S9" s="22"/>
-    </row>
-    <row r="10" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>80000</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>30</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>2666</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <v>8000</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40">
         <v>1</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="40">
         <v>2666</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41">
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40">
         <v>2666</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="40">
         <v>85334</v>
       </c>
-      <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <v>500000</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="40">
         <v>30</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>16666</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40">
         <v>50000</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="40">
         <v>1</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41">
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40">
         <v>450000</v>
       </c>
-      <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <v>30000</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="40">
         <v>30</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>1000</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40">
         <v>1</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="40">
         <v>1000</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41">
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40">
         <v>29000</v>
       </c>
-      <c r="S12" s="22"/>
-    </row>
-    <row r="13" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <v>30000</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="40">
         <v>30</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="40">
         <v>1000</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40">
         <v>1</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="40">
         <v>1000</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41">
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40">
         <v>29000</v>
       </c>
-      <c r="S13" s="22"/>
-    </row>
-    <row r="14" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <v>30000</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="40">
         <v>30</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="40">
         <v>1000</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40">
         <v>7</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="40">
         <v>7000</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41">
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40">
         <v>28000</v>
       </c>
-      <c r="S14" s="22"/>
-    </row>
-    <row r="15" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="39">
         <v>30000</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>30</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>1000</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40">
         <v>3</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="40">
         <v>3000</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41">
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40">
         <v>27000</v>
       </c>
-      <c r="S15" s="22"/>
-    </row>
-    <row r="16" spans="1:21" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="40">
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="39">
         <f>SUM(C3:C15)</f>
         <v>1790000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40">
         <f>SUM(K3:K15)</f>
         <v>135000</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40">
         <f>SUM(P3:P15)</f>
         <v>190000</v>
       </c>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41">
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40">
         <f>SUM(R3:R15)</f>
         <v>1446412</v>
       </c>
-      <c r="S16" s="22"/>
-    </row>
-    <row r="17" spans="1:20" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:20" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>450000</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>30</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>15000</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20">
         <v>2</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21">
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20">
         <v>50000</v>
       </c>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21">
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20">
         <v>90000</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="17" t="s">
+      <c r="S17" s="21"/>
+      <c r="T17" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="14" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+    <row r="18" spans="1:20" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>450000</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>30</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>15000</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20">
         <v>6</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21">
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20">
         <v>20000</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>20000</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="20">
         <v>80000</v>
       </c>
-      <c r="S18" s="22"/>
-      <c r="T18" s="17" t="s">
+      <c r="S18" s="21"/>
+      <c r="T18" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>390000</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>30</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>13000</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="17" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="R20" s="30"/>
+      <c r="A20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="R20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2305,890 +2327,890 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="62" customWidth="1"/>
-    <col min="9" max="9" width="3" style="62" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="62" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="62" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="62" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" style="62" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="62" customWidth="1"/>
-    <col min="15" max="15" width="8" style="62" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="62" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="62" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="62" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="62" customWidth="1"/>
-    <col min="20" max="20" width="7" style="62" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="2.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="61" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="3" style="61" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="61" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="61" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="61" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" style="61" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="8" style="61" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="61" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="61" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="61" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="61" customWidth="1"/>
+    <col min="20" max="20" width="7" style="61" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-    </row>
-    <row r="2" spans="1:21" s="78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+    </row>
+    <row r="2" spans="1:21" s="77" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="76">
+      <c r="J2" s="93"/>
+      <c r="K2" s="75">
         <v>0.1</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="98" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="77" t="s">
+      <c r="S2" s="76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+    <row r="3" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <v>150000</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="68">
         <v>30</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <v>5000</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53">
         <v>15000</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53">
         <v>10000</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="53">
         <v>125000</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="53">
         <f>C3+F3+G3+J3-K3-O3-P3-Q3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="U3" s="66" t="s">
+      <c r="S3" s="64"/>
+      <c r="U3" s="65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
+    <row r="4" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <v>400000</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="56">
         <v>30</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <v>13333</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55">
         <v>40000</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="55">
         <v>1</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="55">
         <v>13333</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56">
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55">
         <v>113333</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="53">
         <f t="shared" ref="R4:R18" si="0">C4+F4+G4+J4-K4-O4-P4-Q4</f>
         <v>246667</v>
       </c>
-      <c r="S4" s="68"/>
-      <c r="T4" s="66">
+      <c r="S4" s="67"/>
+      <c r="T4" s="65">
         <v>100000</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+    <row r="5" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="66">
         <v>200000</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <v>30</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="55">
         <v>6666</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55">
         <v>20000</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="54">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="53">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="S5" s="68"/>
-      <c r="U5" s="66"/>
-    </row>
-    <row r="6" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+      <c r="S5" s="67"/>
+      <c r="U5" s="65"/>
+    </row>
+    <row r="6" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="66">
         <v>100000</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <v>30</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="55">
         <v>3333</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="55">
         <v>10000</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="55">
         <v>6666</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="55">
         <v>832</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="55">
         <v>2</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="55">
         <v>1664</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="55">
         <v>10000</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="54">
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="53">
         <f t="shared" si="0"/>
         <v>108330</v>
       </c>
-      <c r="S6" s="68"/>
-    </row>
-    <row r="7" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="S6" s="67"/>
+    </row>
+    <row r="7" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
         <v>5</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="66">
         <v>70000</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>30</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="55">
         <v>2333</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="55">
         <v>7000</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="55">
         <v>4666</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="55">
         <v>582</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="55">
         <v>5</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="55">
         <v>2910</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56">
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55">
         <v>45000</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="54">
+      <c r="Q7" s="55"/>
+      <c r="R7" s="53">
         <f t="shared" si="0"/>
         <v>39576</v>
       </c>
-      <c r="S7" s="68"/>
-    </row>
-    <row r="8" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="S7" s="67"/>
+    </row>
+    <row r="8" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
         <v>6</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="66">
         <v>90000</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <v>30</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <v>3000</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <v>9000</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="55">
         <v>6000</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="55">
         <v>750</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="55">
         <v>1</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="55">
         <v>750</v>
       </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56">
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55">
         <v>2</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="55">
         <v>6000</v>
       </c>
-      <c r="P8" s="56">
+      <c r="P8" s="55">
         <v>20000</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="55">
         <v>40000</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="53">
         <f t="shared" si="0"/>
         <v>39750</v>
       </c>
-      <c r="S8" s="68"/>
-      <c r="T8" s="66">
+      <c r="S8" s="67"/>
+      <c r="T8" s="65">
         <v>40000</v>
       </c>
-      <c r="U8" s="66" t="s">
+      <c r="U8" s="65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+    <row r="9" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
         <v>7</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <v>80000</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="56">
         <v>30</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="55">
         <v>2666</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="54">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="53">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="S9" s="68"/>
-    </row>
-    <row r="10" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+      <c r="S9" s="67"/>
+    </row>
+    <row r="10" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54">
         <v>8</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="66">
         <v>80000</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>30</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>2666</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>8000</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="55">
         <v>5332</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="54">
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="53">
         <f t="shared" si="0"/>
         <v>93332</v>
       </c>
-      <c r="S10" s="68"/>
-    </row>
-    <row r="11" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="S10" s="67"/>
+    </row>
+    <row r="11" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
         <v>9</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <v>500000</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <v>30</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <v>16666</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55">
         <v>50000</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="54">
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="53">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="S11" s="68"/>
-    </row>
-    <row r="12" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="S11" s="67"/>
+    </row>
+    <row r="12" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
         <v>10</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="66">
         <v>300000</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <v>30</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="55">
         <v>10000</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <v>30000</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="55">
         <v>20000</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56">
+      <c r="H12" s="55"/>
+      <c r="I12" s="55">
         <v>2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="55">
         <v>5000</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="55">
         <v>30000</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="54">
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="53">
         <f t="shared" si="0"/>
         <v>325000</v>
       </c>
-      <c r="S12" s="68"/>
-    </row>
-    <row r="13" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="S12" s="67"/>
+    </row>
+    <row r="13" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
         <v>11</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="66">
         <v>30000</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <v>30</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <v>1000</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55">
         <v>21000</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="53">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="S13" s="68"/>
-    </row>
-    <row r="14" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="S13" s="67"/>
+    </row>
+    <row r="14" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
         <v>12</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="66">
         <v>30000</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <v>30</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="55">
         <v>1000</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55">
         <v>250</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="55">
         <v>2</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="55">
         <v>500</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56">
+      <c r="K14" s="55"/>
+      <c r="L14" s="55">
         <v>1</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M14" s="55">
         <v>1000</v>
       </c>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56">
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55">
         <v>1000</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="53">
         <f t="shared" si="0"/>
         <v>29500</v>
       </c>
-      <c r="S14" s="68"/>
-    </row>
-    <row r="15" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="S14" s="67"/>
+    </row>
+    <row r="15" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54">
         <v>13</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="66">
         <v>30000</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <v>30</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="55">
         <v>1000</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55">
         <v>250</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="55">
         <v>2</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="55">
         <v>500</v>
       </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56">
+      <c r="K15" s="55"/>
+      <c r="L15" s="55">
         <v>1</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="55">
         <v>1000</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56">
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55">
         <v>1000</v>
       </c>
-      <c r="R15" s="54">
+      <c r="R15" s="53">
         <f t="shared" si="0"/>
         <v>29500</v>
       </c>
-      <c r="S15" s="68"/>
-    </row>
-    <row r="16" spans="1:21" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="S15" s="67"/>
+    </row>
+    <row r="16" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
         <v>14</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="66">
         <v>30000</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <v>30</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <v>1000</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55">
         <v>4</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="55">
         <v>4000</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="55">
         <v>2</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="55">
         <v>2000</v>
       </c>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56">
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55">
         <v>4000</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="53">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="S16" s="68"/>
-    </row>
-    <row r="17" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+      <c r="S16" s="67"/>
+    </row>
+    <row r="17" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
         <v>15</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="66">
         <v>30000</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <v>30</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="55">
         <v>1000</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55">
         <v>1</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="55">
         <v>1000</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56">
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55">
         <v>1000</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="53">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="S17" s="67"/>
+    </row>
+    <row r="18" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
         <v>16</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>400000</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="56">
         <v>30</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="55">
         <v>13333</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55">
         <v>266660</v>
       </c>
-      <c r="R18" s="54">
+      <c r="R18" s="53">
         <f t="shared" si="0"/>
         <v>133340</v>
       </c>
-      <c r="S18" s="68"/>
-    </row>
-    <row r="19" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="59">
+      <c r="S18" s="67"/>
+    </row>
+    <row r="19" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="58">
         <f>SUM(C3:C18)</f>
         <v>2520000</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51">
+      <c r="D19" s="69"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50">
         <f>SUM(K3:K17)</f>
         <v>165000</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51">
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50">
         <f>SUM(R3:R18)</f>
         <v>1816995</v>
       </c>
-      <c r="S19" s="68"/>
-    </row>
-    <row r="20" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55">
+      <c r="S19" s="67"/>
+    </row>
+    <row r="20" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
         <v>16</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <v>450000</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="56">
         <v>30</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="55">
         <v>15000</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56">
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55">
         <v>6</v>
       </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56">
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55">
         <v>30000</v>
       </c>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56">
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55">
         <v>95000</v>
       </c>
-      <c r="S20" s="68"/>
-      <c r="T20" s="66" t="s">
+      <c r="S20" s="67"/>
+      <c r="T20" s="65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+    <row r="21" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54">
         <v>17</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="66">
         <v>450000</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="56">
         <v>30</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="55">
         <v>15000</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55">
         <v>4</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56">
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55">
         <v>30000</v>
       </c>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56">
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55">
         <v>105000</v>
       </c>
-      <c r="S21" s="68"/>
-      <c r="T21" s="66" t="s">
+      <c r="S21" s="67"/>
+      <c r="T21" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3211,1195 +3233,1195 @@
   </sheetPr>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="3" style="62" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="62" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="62" customWidth="1"/>
-    <col min="12" max="12" width="4" style="62" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="62" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="62" customWidth="1"/>
-    <col min="15" max="15" width="8" style="62" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="62" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="62" customWidth="1"/>
-    <col min="18" max="18" width="14" style="62" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="62" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" style="62" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="2.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="61" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="3" style="61" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="61" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="61" customWidth="1"/>
+    <col min="12" max="12" width="4" style="61" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="61" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="61" customWidth="1"/>
+    <col min="15" max="15" width="8" style="61" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="61" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="61" customWidth="1"/>
+    <col min="18" max="18" width="14" style="61" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="61" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="61" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-    </row>
-    <row r="2" spans="1:22" s="78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+    </row>
+    <row r="2" spans="1:22" s="77" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="76">
+      <c r="J2" s="93"/>
+      <c r="K2" s="75">
         <v>0.1</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="99"/>
-      <c r="N2" s="98" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="99"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="77" t="s">
+      <c r="S2" s="76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+    <row r="3" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <v>150000</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="68">
         <v>30</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <v>5000</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>15000</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53">
         <v>15000</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53">
         <v>119000</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="53">
         <v>25000</v>
       </c>
-      <c r="R3" s="54">
+      <c r="R3" s="53">
         <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
         <v>6000</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="U3" s="66"/>
-    </row>
-    <row r="4" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
+      <c r="S3" s="64"/>
+      <c r="U3" s="65"/>
+    </row>
+    <row r="4" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <v>400000</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="56">
         <v>30</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <v>13333</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <v>40000</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55">
         <v>40000</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56">
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55">
         <v>50000</v>
       </c>
-      <c r="Q4" s="56">
+      <c r="Q4" s="55">
         <v>100000</v>
       </c>
-      <c r="R4" s="54">
+      <c r="R4" s="53">
         <f t="shared" ref="R4:R24" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
         <v>250000</v>
       </c>
-      <c r="S4" s="68"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+      <c r="S4" s="67"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="66">
         <v>200000</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="56">
         <v>30</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="55">
         <v>6667</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55">
         <v>20000</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="54">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="53">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="S5" s="68"/>
-      <c r="U5" s="66"/>
-    </row>
-    <row r="6" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+      <c r="S5" s="67"/>
+      <c r="U5" s="65"/>
+    </row>
+    <row r="6" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="66">
         <v>100000</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="56">
         <v>30</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="55">
         <v>3333</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56">
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55">
         <v>10000</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56">
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55">
         <v>60000</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="54">
+      <c r="Q6" s="55"/>
+      <c r="R6" s="53">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="S6" s="68"/>
-    </row>
-    <row r="7" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+      <c r="S6" s="67"/>
+    </row>
+    <row r="7" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
         <v>5</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="66">
         <v>70000</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>30</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="55">
         <v>2333</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55">
         <v>582</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="55">
         <v>4</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="55">
         <v>2328</v>
       </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56">
+      <c r="K7" s="55"/>
+      <c r="L7" s="55">
         <v>5</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55">
         <v>70000</v>
       </c>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="54">
+      <c r="Q7" s="55"/>
+      <c r="R7" s="53">
         <f t="shared" si="0"/>
         <v>2328</v>
       </c>
-      <c r="S7" s="68"/>
-    </row>
-    <row r="8" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55">
+      <c r="S7" s="67"/>
+    </row>
+    <row r="8" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
         <v>6</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="66">
         <v>90000</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="56">
         <v>30</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <v>3000</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <v>9000</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55">
         <v>750</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="55">
         <v>3</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="55">
         <v>2250</v>
       </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56">
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55">
         <v>1</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="55">
         <v>3000</v>
       </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56">
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55">
         <v>45000</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="53">
         <f t="shared" si="0"/>
         <v>53250</v>
       </c>
-      <c r="S8" s="68"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66" t="s">
+      <c r="S8" s="67"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="V8" s="63">
+      <c r="V8" s="62">
         <v>65000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
+    <row r="9" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
         <v>7</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <v>80000</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="56">
         <v>30</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="55">
         <v>2666</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55">
         <v>1</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="55">
         <v>2666</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="54">
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="53">
         <f t="shared" si="0"/>
         <v>77334</v>
       </c>
-      <c r="S9" s="68"/>
-    </row>
-    <row r="10" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55">
+      <c r="S9" s="67"/>
+    </row>
+    <row r="10" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54">
         <v>8</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="66">
         <v>80000</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>30</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>2666</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>8000</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55">
         <v>2</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="55">
         <v>5332</v>
       </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="54">
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="53">
         <f t="shared" si="0"/>
         <v>82668</v>
       </c>
-      <c r="S10" s="68"/>
-    </row>
-    <row r="11" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
+      <c r="S10" s="67"/>
+    </row>
+    <row r="11" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
         <v>9</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <v>500000</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <v>30</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <v>16666</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55">
         <v>50000</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56">
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55">
         <v>1</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="55">
         <v>16666</v>
       </c>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="54">
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="53">
         <f t="shared" si="0"/>
         <v>433334</v>
       </c>
-      <c r="S11" s="68"/>
-    </row>
-    <row r="12" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55">
+      <c r="S11" s="67"/>
+    </row>
+    <row r="12" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
         <v>10</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="66">
         <v>300000</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="56">
         <v>30</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="55">
         <v>10000</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <v>30000</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55">
         <v>2500</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="55">
         <v>2</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="55">
         <v>5000</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="55">
         <v>30000</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56">
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55">
         <v>2</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="55">
         <v>20000</v>
       </c>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="54">
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="53">
         <f t="shared" si="0"/>
         <v>285000</v>
       </c>
-      <c r="S12" s="68"/>
-    </row>
-    <row r="13" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="S12" s="67"/>
+    </row>
+    <row r="13" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
         <v>11</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="66">
         <v>30000</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="56">
         <v>30</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <v>1000</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55">
         <v>125</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="55">
         <v>3</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="55">
         <v>375</v>
       </c>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56">
+      <c r="K13" s="55"/>
+      <c r="L13" s="55">
         <v>1</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="55">
         <v>1000</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="54">
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="53">
         <f t="shared" si="0"/>
         <v>29375</v>
       </c>
-      <c r="S13" s="68"/>
-    </row>
-    <row r="14" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="S13" s="67"/>
+    </row>
+    <row r="14" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
         <v>12</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="66">
         <v>30000</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <v>30</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="55">
         <v>1000</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56">
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55">
         <v>30000</v>
       </c>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="54">
+      <c r="Q14" s="55"/>
+      <c r="R14" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="68"/>
-    </row>
-    <row r="15" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="S14" s="67"/>
+    </row>
+    <row r="15" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54">
         <v>13</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="66">
         <v>30000</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="56">
         <v>30</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="55">
         <v>1000</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56">
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55">
         <v>30000</v>
       </c>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="54">
+      <c r="Q15" s="55"/>
+      <c r="R15" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="68"/>
-    </row>
-    <row r="16" spans="1:22" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55">
+      <c r="S15" s="67"/>
+    </row>
+    <row r="16" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
         <v>14</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="66">
         <v>30000</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="56">
         <v>30</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <v>1000</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56">
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55">
         <v>6</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="55">
         <v>6000</v>
       </c>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="54">
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="53">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="S16" s="68"/>
-    </row>
-    <row r="17" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
+      <c r="S16" s="67"/>
+    </row>
+    <row r="17" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
         <v>15</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="66">
         <v>30000</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <v>30</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="55">
         <v>1000</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56">
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55">
         <v>1</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="55">
         <v>1000</v>
       </c>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="54">
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="53">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="S17" s="67"/>
+    </row>
+    <row r="18" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
         <v>16</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>30000</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="56">
         <v>30</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="55">
         <v>1000</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55">
         <v>1</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="55">
         <v>1000</v>
       </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="54">
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="53">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
-      <c r="S18" s="68"/>
-    </row>
-    <row r="19" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="S18" s="67"/>
+    </row>
+    <row r="19" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
         <v>17</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="67">
+      <c r="B19" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="66">
         <v>150000</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="56">
         <v>30</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="55">
         <v>5000</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55">
         <v>625</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="55">
         <v>9</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="55">
         <v>5625</v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56">
+      <c r="K19" s="55"/>
+      <c r="L19" s="55">
         <v>6</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="55">
         <v>30000</v>
       </c>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56">
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55">
         <v>45000</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="53">
         <f t="shared" si="0"/>
         <v>80625</v>
       </c>
-      <c r="S19" s="68"/>
-      <c r="T19" s="93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55">
+      <c r="S19" s="67"/>
+      <c r="T19" s="87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54">
         <v>18</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="67">
+      <c r="B20" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="66">
         <v>100000</v>
       </c>
-      <c r="D20" s="57">
+      <c r="D20" s="56">
         <v>30</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="55">
         <v>3333</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56">
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55">
         <v>18</v>
       </c>
-      <c r="M20" s="56">
+      <c r="M20" s="55">
         <v>59994</v>
       </c>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="54">
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="53">
         <f t="shared" si="0"/>
         <v>40006</v>
       </c>
-      <c r="S20" s="68"/>
-    </row>
-    <row r="21" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="S20" s="67"/>
+    </row>
+    <row r="21" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54">
         <v>19</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="67">
+      <c r="B21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="66">
         <v>30000</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="56">
         <v>30</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="55">
         <v>1000</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56">
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55">
         <v>18</v>
       </c>
-      <c r="M21" s="56">
+      <c r="M21" s="55">
         <v>18000</v>
       </c>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="54">
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="53">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="S21" s="68"/>
-    </row>
-    <row r="22" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55">
+      <c r="S21" s="67"/>
+    </row>
+    <row r="22" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
         <v>20</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="67">
+      <c r="B22" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="66">
         <v>30000</v>
       </c>
-      <c r="D22" s="57">
+      <c r="D22" s="56">
         <v>30</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="55">
         <v>1000</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55">
         <v>26</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="55">
         <v>26000</v>
       </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="54">
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="53">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="S22" s="68"/>
-    </row>
-    <row r="23" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
+      <c r="S22" s="67"/>
+    </row>
+    <row r="23" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54">
         <v>21</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="67">
+      <c r="B23" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="66">
         <v>30000</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="56">
         <v>30</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="55">
         <v>1000</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55">
         <v>26</v>
       </c>
-      <c r="M23" s="56">
+      <c r="M23" s="55">
         <v>26000</v>
       </c>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="54">
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="53">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="S23" s="68"/>
-    </row>
-    <row r="24" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55">
+      <c r="S23" s="67"/>
+    </row>
+    <row r="24" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
         <v>22</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="67">
+      <c r="B24" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="66">
         <v>180000</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56">
+      <c r="D24" s="56"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55">
         <v>180000</v>
       </c>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="54">
+      <c r="Q24" s="55"/>
+      <c r="R24" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="68"/>
-    </row>
-    <row r="25" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="59">
+      <c r="S24" s="67"/>
+    </row>
+    <row r="25" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="58">
         <f>SUM(C3:C18)</f>
         <v>2150000</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51">
+      <c r="D25" s="69"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50">
         <f>SUM(K3:K18)</f>
         <v>165000</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="81">
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="80">
         <f>SUM(R3:R24)</f>
         <v>1651920</v>
       </c>
-      <c r="S25" s="68"/>
-    </row>
-    <row r="26" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55">
+      <c r="S25" s="67"/>
+    </row>
+    <row r="26" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54">
         <v>23</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="66">
         <v>150000</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56">
+      <c r="D26" s="56"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55">
         <v>9</v>
       </c>
-      <c r="M26" s="56">
+      <c r="M26" s="55">
         <v>45000</v>
       </c>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56">
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55">
         <v>50000</v>
       </c>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="54">
+      <c r="Q26" s="55"/>
+      <c r="R26" s="53">
         <f t="shared" ref="R26:R27" si="1">C26+F26+G26+H26+J26-M26-O26-P26-Q26</f>
         <v>55000</v>
       </c>
-      <c r="S26" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="T26" s="66" t="s">
+      <c r="S26" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="T26" s="65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+    <row r="27" spans="1:20" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54">
         <v>24</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="66">
         <v>150000</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56">
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55">
         <v>4</v>
       </c>
-      <c r="M27" s="56">
+      <c r="M27" s="55">
         <v>20000</v>
       </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56">
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55">
         <v>20000</v>
       </c>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="54">
+      <c r="Q27" s="55"/>
+      <c r="R27" s="53">
         <f t="shared" si="1"/>
         <v>110000</v>
       </c>
-      <c r="S27" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="T27" s="66" t="s">
+      <c r="S27" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="T27" s="65" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="80">
+      <c r="C28" s="79">
         <f>SUM(C25:C27)</f>
         <v>2450000</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="54"/>
+      <c r="B29" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="66">
         <v>400000</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="56">
         <v>30</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="55">
         <v>13333</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56">
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55">
         <v>17</v>
       </c>
-      <c r="M29" s="56">
+      <c r="M29" s="55">
         <v>226661</v>
       </c>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56">
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55">
         <f t="shared" ref="R29:R30" si="2">C29+F29+G29+J29-K29-M29-O29-P29-Q29</f>
         <v>173339</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="67">
+      <c r="A30" s="54"/>
+      <c r="B30" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="66">
         <v>400000</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="56">
         <v>30</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="55">
         <v>13333</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56">
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55">
         <v>20</v>
       </c>
-      <c r="M30" s="56">
+      <c r="M30" s="55">
         <v>266660</v>
       </c>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="54">
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="53">
         <f t="shared" si="2"/>
         <v>133340</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R31" s="92">
+      <c r="R31" s="86">
         <f>SUM(R29:R30)</f>
         <v>306679</v>
       </c>
@@ -4420,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4439,45 +4461,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="101">
+      <c r="A1" s="95">
         <v>43313</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6">
@@ -4578,7 +4600,7 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
@@ -4617,7 +4639,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2"/>
@@ -4656,28 +4678,28 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="7"/>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="83"/>
+      <c r="U5" s="42"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -4695,7 +4717,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="2"/>
@@ -4715,7 +4737,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="7"/>
+      <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -4734,7 +4756,7 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -4752,11 +4774,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -4773,10 +4795,10 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4784,45 +4806,45 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4851,7 +4873,7 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2"/>
@@ -4890,7 +4912,7 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2"/>
@@ -4929,7 +4951,7 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
@@ -4968,7 +4990,7 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2"/>
@@ -5007,7 +5029,7 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2"/>
@@ -5030,8 +5052,8 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -5046,28 +5068,28 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -5091,7 +5113,7 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -5099,25 +5121,25 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="83"/>
+      <c r="U16" s="42"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="7"/>
+      <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -5136,7 +5158,7 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="2"/>
@@ -5153,7 +5175,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="82"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -5181,7 +5203,7 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="2"/>
@@ -5195,7 +5217,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -5220,14 +5242,14 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -5241,7 +5263,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="7"/>
+      <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -5259,7 +5281,7 @@
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="2"/>
@@ -5273,7 +5295,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -5298,7 +5320,7 @@
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="2"/>
@@ -5318,7 +5340,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="7"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5337,7 +5359,7 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="2"/>
@@ -5355,15 +5377,15 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="7"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -5373,160 +5395,160 @@
       <c r="AG22" s="2"/>
     </row>
     <row r="23" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86">
+      <c r="A23" s="81">
         <v>21</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+    </row>
+    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
+        <v>22</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
+        <v>23</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
-    </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86">
-        <v>22</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="84"/>
-    </row>
-    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86">
-        <v>23</v>
-      </c>
-      <c r="B25" s="44" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
+        <v>24</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
-    </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86">
-        <v>24</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="84"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5539,361 +5561,360 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="103" t="s">
+    <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-    </row>
-    <row r="2" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48">
-        <v>1</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-    </row>
-    <row r="4" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45">
-        <v>2</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48">
-        <v>3</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45">
-        <v>4</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
+        <v>5</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48">
-        <v>5</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
+        <v>6</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45">
-        <v>6</v>
-      </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48">
-        <v>7</v>
-      </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
+        <v>8</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45">
-        <v>8</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
+        <v>9</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48">
-        <v>9</v>
-      </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
+        <v>10</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="45">
-        <v>10</v>
-      </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
+        <v>11</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="48">
-        <v>11</v>
-      </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
+        <v>12</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45">
-        <v>12</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47">
+        <v>13</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48">
-        <v>13</v>
-      </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>14</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="45">
-        <v>14</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47">
+        <v>15</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="48">
-        <v>15</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
         <v>16</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48">
+      <c r="B18" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47">
         <v>17</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-    </row>
-    <row r="20" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45">
+      <c r="B19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
         <v>18</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
         <v>19</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="24" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K24">
+      <c r="B21" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.18" right="0.14000000000000001" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="June-2018" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Sheet3!$B$1:$J$22</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="94">
   <si>
     <t>NO</t>
   </si>
@@ -333,8 +336,14 @@
     <t>Myo Thiha</t>
   </si>
   <si>
+    <t>Cherry Soe</t>
+  </si>
+  <si>
+    <t>Kyi Thar tun</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">                                                                  </t>
+      <t xml:space="preserve">                                                          </t>
     </r>
     <r>
       <rPr>
@@ -396,11 +405,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6.9.2018/Thu;</t>
+      <t>12.9.2018/Wed;</t>
     </r>
-  </si>
-  <si>
-    <t>Cherry Soe</t>
   </si>
 </sst>
 </file>
@@ -1180,6 +1186,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,7 +1217,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1547,27 +1553,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1594,21 +1600,21 @@
       <c r="H2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="90"/>
+      <c r="J2" s="91"/>
       <c r="K2" s="11">
         <v>0.1</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="M2" s="91"/>
+      <c r="N2" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="90"/>
+      <c r="O2" s="91"/>
       <c r="P2" s="9" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2327,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2351,27 +2357,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
     </row>
     <row r="2" spans="1:21" s="77" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
@@ -2398,21 +2404,21 @@
       <c r="H2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="75">
         <v>0.1</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="94"/>
+      <c r="N2" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="93"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="72" t="s">
         <v>23</v>
       </c>
@@ -3231,12 +3237,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3245,11 +3251,11 @@
     <col min="2" max="2" width="17.5703125" style="61" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="61" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="61" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="61" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="61" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="3" style="61" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="61" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="61" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="61" customWidth="1"/>
     <col min="12" max="12" width="4" style="61" customWidth="1"/>
@@ -3264,30 +3270,30 @@
     <col min="21" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:21" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-    </row>
-    <row r="2" spans="1:22" s="77" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+    </row>
+    <row r="2" spans="1:21" s="77" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
@@ -3312,21 +3318,21 @@
       <c r="H2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="75">
         <v>0.1</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="94"/>
+      <c r="N2" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="93"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="72" t="s">
         <v>23</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>1</v>
       </c>
@@ -3383,7 +3389,7 @@
       <c r="S3" s="64"/>
       <c r="U3" s="65"/>
     </row>
-    <row r="4" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>2</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>3</v>
       </c>
@@ -3466,7 +3472,7 @@
       <c r="S5" s="67"/>
       <c r="U5" s="65"/>
     </row>
-    <row r="6" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>4</v>
       </c>
@@ -3504,7 +3510,7 @@
       </c>
       <c r="S6" s="67"/>
     </row>
-    <row r="7" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>5</v>
       </c>
@@ -3548,7 +3554,7 @@
       </c>
       <c r="S7" s="67"/>
     </row>
-    <row r="8" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>6</v>
       </c>
@@ -3596,14 +3602,11 @@
       </c>
       <c r="S8" s="67"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="V8" s="62">
+      <c r="U8" s="65">
         <v>65000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>7</v>
       </c>
@@ -3641,7 +3644,7 @@
       </c>
       <c r="S9" s="67"/>
     </row>
-    <row r="10" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>8</v>
       </c>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="S10" s="67"/>
     </row>
-    <row r="11" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>9</v>
       </c>
@@ -3721,7 +3724,7 @@
       </c>
       <c r="S11" s="67"/>
     </row>
-    <row r="12" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>10</v>
       </c>
@@ -3769,7 +3772,7 @@
       </c>
       <c r="S12" s="67"/>
     </row>
-    <row r="13" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>11</v>
       </c>
@@ -3813,7 +3816,7 @@
       </c>
       <c r="S13" s="67"/>
     </row>
-    <row r="14" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>12</v>
       </c>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="S14" s="67"/>
     </row>
-    <row r="15" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>13</v>
       </c>
@@ -3885,7 +3888,7 @@
       </c>
       <c r="S15" s="67"/>
     </row>
-    <row r="16" spans="1:22" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>14</v>
       </c>
@@ -4461,41 +4464,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="95">
+      <c r="A1" s="96">
         <v>43313</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -5482,7 +5485,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="98"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5561,360 +5564,375 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+    </row>
+    <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+    <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="82"/>
       <c r="D3" s="82"/>
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
       <c r="G3" s="82"/>
       <c r="H3" s="82"/>
       <c r="I3" s="82"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="J3" s="82"/>
+    </row>
+    <row r="4" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="C4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="45" t="s">
+        <v>90</v>
+      </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="47">
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="45" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="45" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="45" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="47">
         <v>7</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="45" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47">
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="45" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="47">
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="45" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="45" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="47">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="48" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47">
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="47">
         <v>16</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46"/>
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47">
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="45" t="s">
+        <v>78</v>
+      </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44">
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44">
         <v>18</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="47">
         <v>19</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="45" t="s">
+        <v>77</v>
+      </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J24">
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44">
+        <v>20</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="25" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <pageMargins left="0.18" right="0.14000000000000001" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.41" right="0.14000000000000001" top="0.18" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -373,7 +373,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>17.9.2018/Mon;</t>
+      <t>21.9.2018/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="18"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fri</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
     </r>
   </si>
 </sst>
@@ -385,7 +407,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +658,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2263,7 +2293,7 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -3178,7 +3208,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4384,8 +4414,8 @@
   </sheetPr>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4397,17 +4427,17 @@
     <col min="5" max="5" width="9.85546875" style="55" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="55" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="55" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="55" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" style="55" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="55" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="55" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="55" customWidth="1"/>
     <col min="12" max="12" width="4" style="55" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" style="55" customWidth="1"/>
     <col min="14" max="14" width="3.7109375" style="55" customWidth="1"/>
     <col min="15" max="15" width="8" style="55" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="55" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="55" customWidth="1"/>
-    <col min="18" max="18" width="14" style="55" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="55" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="55" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" style="55" customWidth="1"/>
     <col min="20" max="20" width="17.5703125" style="55" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="55"/>
@@ -4510,14 +4540,19 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
+      <c r="K3" s="47">
+        <v>15000</v>
+      </c>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
       <c r="P3" s="47"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="R3" s="47">
+        <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
+        <v>135000</v>
+      </c>
       <c r="S3" s="58"/>
       <c r="U3" s="59"/>
     </row>
@@ -4542,14 +4577,19 @@
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="K4" s="49">
+        <v>40000</v>
+      </c>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
       <c r="O4" s="49"/>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
-      <c r="R4" s="47"/>
+      <c r="R4" s="47">
+        <f t="shared" ref="R4:R22" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
+        <v>360000</v>
+      </c>
       <c r="S4" s="61"/>
       <c r="T4" s="59"/>
       <c r="U4" s="59" t="s">
@@ -4577,14 +4617,19 @@
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="K5" s="49">
+        <v>40000</v>
+      </c>
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
       <c r="O5" s="49"/>
       <c r="P5" s="49"/>
       <c r="Q5" s="49"/>
-      <c r="R5" s="47"/>
+      <c r="R5" s="47">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
       <c r="S5" s="61"/>
       <c r="T5" s="59"/>
       <c r="U5" s="59"/>
@@ -4610,14 +4655,19 @@
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="K6" s="49">
+        <v>20000</v>
+      </c>
       <c r="L6" s="49"/>
       <c r="M6" s="49"/>
       <c r="N6" s="49"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49"/>
       <c r="Q6" s="49"/>
-      <c r="R6" s="47"/>
+      <c r="R6" s="47">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
       <c r="S6" s="61"/>
       <c r="U6" s="59"/>
     </row>
@@ -4649,7 +4699,10 @@
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
-      <c r="R7" s="47"/>
+      <c r="R7" s="47">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
       <c r="S7" s="61"/>
       <c r="U7" s="59"/>
     </row>
@@ -4674,14 +4727,21 @@
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="K8" s="49">
+        <v>10000</v>
+      </c>
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="P8" s="49">
+        <v>5000</v>
+      </c>
       <c r="Q8" s="49"/>
-      <c r="R8" s="47"/>
+      <c r="R8" s="47">
+        <f t="shared" si="0"/>
+        <v>85000</v>
+      </c>
       <c r="S8" s="61"/>
     </row>
     <row r="9" spans="1:21" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4710,9 +4770,14 @@
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
       <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="P9" s="49">
+        <v>10000</v>
+      </c>
       <c r="Q9" s="49"/>
-      <c r="R9" s="47"/>
+      <c r="R9" s="47">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
       <c r="S9" s="61"/>
     </row>
     <row r="10" spans="1:21" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4742,8 +4807,13 @@
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="47"/>
+      <c r="Q10" s="49">
+        <v>65000</v>
+      </c>
+      <c r="R10" s="47">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
       <c r="S10" s="61"/>
       <c r="T10" s="59"/>
       <c r="U10" s="59">
@@ -4771,14 +4841,21 @@
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="K11" s="49">
+        <v>30000</v>
+      </c>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
+      <c r="P11" s="49">
+        <v>41000</v>
+      </c>
       <c r="Q11" s="49"/>
-      <c r="R11" s="47"/>
+      <c r="R11" s="47">
+        <f t="shared" si="0"/>
+        <v>229000</v>
+      </c>
       <c r="S11" s="61"/>
       <c r="T11" s="59"/>
       <c r="U11" s="59"/>
@@ -4804,14 +4881,23 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
+      <c r="K12" s="49">
+        <v>15000</v>
+      </c>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="47"/>
+      <c r="P12" s="49">
+        <v>34000</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>40000</v>
+      </c>
+      <c r="R12" s="47">
+        <f t="shared" si="0"/>
+        <v>61000</v>
+      </c>
       <c r="S12" s="61"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
@@ -4837,14 +4923,21 @@
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="K13" s="49">
+        <v>40000</v>
+      </c>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="P13" s="49">
+        <v>20000</v>
+      </c>
       <c r="Q13" s="49"/>
-      <c r="R13" s="47"/>
+      <c r="R13" s="47">
+        <f t="shared" si="0"/>
+        <v>340000</v>
+      </c>
       <c r="S13" s="61"/>
       <c r="T13" s="59"/>
       <c r="U13" s="59"/>
@@ -4870,14 +4963,19 @@
       <c r="H14" s="49"/>
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
+      <c r="K14" s="49">
+        <v>10000</v>
+      </c>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
       <c r="Q14" s="49"/>
-      <c r="R14" s="47"/>
+      <c r="R14" s="47">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
       <c r="S14" s="61"/>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
@@ -4908,9 +5006,14 @@
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="P15" s="49">
+        <v>20000</v>
+      </c>
       <c r="Q15" s="49"/>
-      <c r="R15" s="47"/>
+      <c r="R15" s="47">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
       <c r="S15" s="61"/>
     </row>
     <row r="16" spans="1:21" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4941,7 +5044,10 @@
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="49"/>
-      <c r="R16" s="47"/>
+      <c r="R16" s="47">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="S16" s="61"/>
     </row>
     <row r="17" spans="1:20" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4972,7 +5078,10 @@
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="49"/>
-      <c r="R17" s="47"/>
+      <c r="R17" s="47">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="S17" s="61"/>
     </row>
     <row r="18" spans="1:20" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,7 +5112,10 @@
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="49"/>
-      <c r="R18" s="47"/>
+      <c r="R18" s="47">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="S18" s="61"/>
     </row>
     <row r="19" spans="1:20" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5034,7 +5146,10 @@
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
       <c r="Q19" s="49"/>
-      <c r="R19" s="47"/>
+      <c r="R19" s="47">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="S19" s="61"/>
     </row>
     <row r="20" spans="1:20" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5065,7 +5180,10 @@
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
-      <c r="R20" s="47"/>
+      <c r="R20" s="47">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="S20" s="61"/>
     </row>
     <row r="21" spans="1:20" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5096,7 +5214,10 @@
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
-      <c r="R21" s="47"/>
+      <c r="R21" s="47">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
       <c r="S21" s="61"/>
     </row>
     <row r="22" spans="1:20" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5123,7 +5244,10 @@
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
-      <c r="R22" s="47"/>
+      <c r="R22" s="47">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
       <c r="S22" s="77"/>
       <c r="T22" s="59"/>
     </row>
@@ -5141,14 +5265,20 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="K23" s="44">
+        <f>SUM(K3:K22)</f>
+        <v>220000</v>
+      </c>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
       <c r="N23" s="44"/>
       <c r="O23" s="44"/>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
-      <c r="R23" s="74"/>
+      <c r="R23" s="74">
+        <f>SUM(R3:R22)</f>
+        <v>2465000</v>
+      </c>
       <c r="S23" s="77"/>
       <c r="T23" s="59"/>
     </row>
@@ -5174,7 +5304,9 @@
       <c r="M24" s="49"/>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
+      <c r="P24" s="49">
+        <v>10000</v>
+      </c>
       <c r="Q24" s="49"/>
       <c r="R24" s="47"/>
       <c r="S24" s="77"/>
@@ -5214,23 +5346,22 @@
   <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" customWidth="1"/>
+    <col min="7" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="94" t="s">
         <v>82</v>
       </c>
@@ -5243,7 +5374,7 @@
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
     </row>
-    <row r="2" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43"/>
       <c r="C2" s="43" t="s">
         <v>24</v>
@@ -5270,7 +5401,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41">
         <v>1</v>
       </c>
@@ -5285,7 +5416,7 @@
       <c r="I3" s="75"/>
       <c r="J3" s="75"/>
     </row>
-    <row r="4" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38">
         <v>2</v>
       </c>
@@ -5300,7 +5431,7 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
     </row>
-    <row r="5" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41">
         <v>3</v>
       </c>
@@ -5315,7 +5446,7 @@
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
     </row>
-    <row r="6" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38">
         <v>4</v>
       </c>
@@ -5330,7 +5461,7 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41">
         <v>5</v>
       </c>
@@ -5345,7 +5476,7 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
     </row>
-    <row r="8" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38">
         <v>6</v>
       </c>
@@ -5360,7 +5491,7 @@
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
     </row>
-    <row r="9" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="41">
         <v>7</v>
       </c>
@@ -5375,7 +5506,7 @@
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
     </row>
-    <row r="10" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="38">
         <v>8</v>
       </c>
@@ -5390,7 +5521,7 @@
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41">
         <v>9</v>
       </c>
@@ -5405,7 +5536,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38">
         <v>10</v>
       </c>
@@ -5420,7 +5551,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
     </row>
-    <row r="13" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41">
         <v>11</v>
       </c>
@@ -5435,7 +5566,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38">
         <v>12</v>
       </c>
@@ -5450,7 +5581,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
     </row>
-    <row r="15" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41">
         <v>13</v>
       </c>
@@ -5465,7 +5596,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
     </row>
-    <row r="16" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="38">
         <v>14</v>
       </c>
@@ -5480,7 +5611,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
     </row>
-    <row r="17" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41">
         <v>15</v>
       </c>
@@ -5495,7 +5626,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
     </row>
-    <row r="18" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="38">
         <v>16</v>
       </c>
@@ -5510,7 +5641,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
     </row>
-    <row r="19" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41">
         <v>17</v>
       </c>
@@ -5525,7 +5656,7 @@
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
     </row>
-    <row r="20" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="38">
         <v>18</v>
       </c>
@@ -5540,7 +5671,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41">
         <v>19</v>
       </c>
@@ -5555,7 +5686,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="24" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>96</v>
       </c>
@@ -5564,7 +5695,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0.12" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -5573,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,7 +5958,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="83"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="37"/>
@@ -5866,7 +5997,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="83"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -5905,7 +6036,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="83"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -5984,7 +6115,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="83"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -6140,7 +6271,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="83"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -6178,7 +6309,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="83"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -6391,11 +6522,11 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="83"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="V19" s="83"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -6508,7 +6639,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="83"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>

--- a/GB-3 Salary Attandance.xlsx
+++ b/GB-3 Salary Attandance.xlsx
@@ -321,7 +321,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">           </t>
     </r>
     <r>
       <rPr>
@@ -362,7 +362,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                                                        </t>
+      <t xml:space="preserve">                                                                                            </t>
     </r>
     <r>
       <rPr>
@@ -373,29 +373,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>21.9.2018/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="18"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fri</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
+      <t>27.9.2018/Thu;</t>
     </r>
   </si>
 </sst>
@@ -407,7 +385,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,14 +636,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4414,8 +4384,8 @@
   </sheetPr>
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4547,11 +4517,15 @@
       <c r="M3" s="47"/>
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="P3" s="47">
+        <v>40000</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>80000</v>
+      </c>
       <c r="R3" s="47">
         <f>C3+F3+G3+J3-K3-M3-O3-P3-Q3</f>
-        <v>135000</v>
+        <v>15000</v>
       </c>
       <c r="S3" s="58"/>
       <c r="U3" s="59"/>
@@ -4584,11 +4558,15 @@
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="P4" s="49">
+        <v>150000</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>100000</v>
+      </c>
       <c r="R4" s="47">
         <f t="shared" ref="R4:R22" si="0">C4+F4+G4+J4-K4-M4-O4-P4-Q4</f>
-        <v>360000</v>
+        <v>110000</v>
       </c>
       <c r="S4" s="61"/>
       <c r="T4" s="59"/>
@@ -4889,17 +4867,19 @@
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49">
-        <v>34000</v>
+        <v>43000</v>
       </c>
       <c r="Q12" s="49">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="R12" s="47">
         <f t="shared" si="0"/>
-        <v>61000</v>
+        <v>82000</v>
       </c>
       <c r="S12" s="61"/>
-      <c r="T12" s="59"/>
+      <c r="T12" s="59">
+        <v>40000</v>
+      </c>
       <c r="U12" s="59"/>
     </row>
     <row r="13" spans="1:21" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5110,11 +5090,13 @@
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
+      <c r="P18" s="49">
+        <v>5000</v>
+      </c>
       <c r="Q18" s="49"/>
       <c r="R18" s="47">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="S18" s="61"/>
     </row>
@@ -5277,7 +5259,7 @@
       <c r="Q23" s="44"/>
       <c r="R23" s="74">
         <f>SUM(R3:R22)</f>
-        <v>2465000</v>
+        <v>2111000</v>
       </c>
       <c r="S23" s="77"/>
       <c r="T23" s="59"/>
@@ -5305,7 +5287,7 @@
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" s="49"/>
       <c r="R24" s="47"/>
@@ -5346,7 +5328,7 @@
   <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5705,7 +5687,7 @@
   <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5886,8 +5868,8 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
@@ -6043,7 +6025,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="83"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -6646,7 +6628,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="83"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
